--- a/r4-core-57-Patient-Identifier-TypeCodes/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-57-Patient-Identifier-TypeCodes/StructureDefinition-at-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9507" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9506" uniqueCount="983">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-12T14:27:51+00:00</t>
+    <t>2023-02-23T15:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -950,7 +950,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://termgit.elga.gv.at/ValueSet/elga-patientidentifier</t>
+    <t>https://termgit.elga.gv.at/ValueSet/hl7-at-patientidentifier</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1401,6 +1401,9 @@
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type</t>
+  </si>
+  <si>
+    <t>https://termgit.elga.gv.at/ValueSet/elga-patientidentifier</t>
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type.id</t>
@@ -15691,11 +15694,9 @@
       <c r="X103" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y103" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>343</v>
+        <v>451</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
@@ -15748,7 +15749,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>345</v>
@@ -15866,7 +15867,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>347</v>
@@ -15986,7 +15987,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>349</v>
@@ -16108,7 +16109,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>351</v>
@@ -16226,7 +16227,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>353</v>
@@ -16346,7 +16347,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>355</v>
@@ -16468,7 +16469,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>359</v>
@@ -16588,7 +16589,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>361</v>
@@ -16631,7 +16632,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>79</v>
@@ -16708,7 +16709,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>364</v>
@@ -16751,7 +16752,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>79</v>
@@ -16828,7 +16829,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>367</v>
@@ -16950,7 +16951,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>369</v>
@@ -17072,7 +17073,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>305</v>
@@ -17101,7 +17102,7 @@
         <v>100</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>307</v>
@@ -17189,12 +17190,12 @@
         <v>79</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>314</v>
@@ -17309,12 +17310,12 @@
         <v>79</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>322</v>
@@ -17432,7 +17433,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>328</v>
@@ -17552,10 +17553,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17581,67 +17582,67 @@
         <v>233</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q119" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF119" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q119" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -17656,13 +17657,13 @@
         <v>98</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -17676,10 +17677,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17702,19 +17703,19 @@
         <v>87</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>79</v>
@@ -17763,7 +17764,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -17778,30 +17779,30 @@
         <v>98</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN120" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>486</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17916,10 +17917,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -18036,10 +18037,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18065,16 +18066,16 @@
         <v>106</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -18102,10 +18103,10 @@
         <v>292</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>79</v>
@@ -18123,7 +18124,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -18138,7 +18139,7 @@
         <v>98</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>79</v>
@@ -18147,7 +18148,7 @@
         <v>79</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>79</v>
@@ -18158,10 +18159,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18187,16 +18188,16 @@
         <v>146</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -18245,7 +18246,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -18260,7 +18261,7 @@
         <v>98</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>79</v>
@@ -18269,7 +18270,7 @@
         <v>79</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>79</v>
@@ -18280,14 +18281,14 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -18309,13 +18310,13 @@
         <v>146</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -18365,7 +18366,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -18380,7 +18381,7 @@
         <v>98</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>79</v>
@@ -18389,25 +18390,25 @@
         <v>79</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -18429,13 +18430,13 @@
         <v>146</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -18485,7 +18486,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
@@ -18500,7 +18501,7 @@
         <v>98</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>79</v>
@@ -18509,21 +18510,21 @@
         <v>79</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP126" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18549,10 +18550,10 @@
         <v>146</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -18603,7 +18604,7 @@
         <v>79</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
@@ -18618,7 +18619,7 @@
         <v>98</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>79</v>
@@ -18627,21 +18628,21 @@
         <v>79</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18667,10 +18668,10 @@
         <v>146</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -18721,7 +18722,7 @@
         <v>79</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -18736,7 +18737,7 @@
         <v>98</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>79</v>
@@ -18745,21 +18746,21 @@
         <v>79</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18785,14 +18786,14 @@
         <v>258</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>79</v>
@@ -18841,7 +18842,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -18856,7 +18857,7 @@
         <v>98</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>79</v>
@@ -18865,7 +18866,7 @@
         <v>79</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>79</v>
@@ -18876,10 +18877,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18902,19 +18903,19 @@
         <v>87</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -18963,7 +18964,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -18978,16 +18979,16 @@
         <v>98</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>79</v>
@@ -18998,10 +18999,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -19116,10 +19117,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19236,10 +19237,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19265,10 +19266,10 @@
         <v>106</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -19298,10 +19299,10 @@
         <v>292</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>79</v>
@@ -19319,7 +19320,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
@@ -19328,13 +19329,13 @@
         <v>86</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>79</v>
@@ -19343,21 +19344,21 @@
         <v>79</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19383,16 +19384,16 @@
         <v>146</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -19441,7 +19442,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -19456,7 +19457,7 @@
         <v>98</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>79</v>
@@ -19465,21 +19466,21 @@
         <v>79</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19505,16 +19506,16 @@
         <v>106</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -19542,10 +19543,10 @@
         <v>292</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>79</v>
@@ -19563,7 +19564,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -19578,7 +19579,7 @@
         <v>98</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>79</v>
@@ -19587,21 +19588,21 @@
         <v>79</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19624,16 +19625,16 @@
         <v>87</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -19683,7 +19684,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>77</v>
@@ -19718,10 +19719,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19747,10 +19748,10 @@
         <v>258</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -19801,7 +19802,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>77</v>
@@ -19816,7 +19817,7 @@
         <v>98</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>79</v>
@@ -19836,10 +19837,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19865,16 +19866,16 @@
         <v>106</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -19902,10 +19903,10 @@
         <v>292</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>79</v>
@@ -19923,7 +19924,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -19938,30 +19939,30 @@
         <v>98</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP138" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19984,19 +19985,19 @@
         <v>87</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>79</v>
@@ -20045,7 +20046,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>77</v>
@@ -20060,30 +20061,30 @@
         <v>98</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20106,19 +20107,19 @@
         <v>87</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>79</v>
@@ -20155,17 +20156,17 @@
         <v>79</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AC140" s="2"/>
       <c r="AD140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>77</v>
@@ -20180,7 +20181,7 @@
         <v>98</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>150</v>
@@ -20189,7 +20190,7 @@
         <v>79</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>79</v>
@@ -20200,13 +20201,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>79</v>
@@ -20231,16 +20232,16 @@
         <v>233</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>79</v>
@@ -20289,7 +20290,7 @@
         <v>79</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
@@ -20304,7 +20305,7 @@
         <v>98</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>150</v>
@@ -20313,24 +20314,24 @@
         <v>79</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D142" t="s" s="2">
         <v>79</v>
@@ -20352,19 +20353,19 @@
         <v>87</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>79</v>
@@ -20413,7 +20414,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
@@ -20428,7 +20429,7 @@
         <v>98</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>150</v>
@@ -20437,21 +20438,21 @@
         <v>79</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20474,19 +20475,19 @@
         <v>79</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -20535,7 +20536,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>77</v>
@@ -20547,10 +20548,10 @@
         <v>143</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>79</v>
@@ -20559,7 +20560,7 @@
         <v>79</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>79</v>
@@ -20570,10 +20571,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20688,10 +20689,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20808,10 +20809,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20837,16 +20838,16 @@
         <v>106</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>79</v>
@@ -20859,7 +20860,7 @@
         <v>79</v>
       </c>
       <c r="T146" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="U146" t="s" s="2">
         <v>79</v>
@@ -20874,10 +20875,10 @@
         <v>292</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>79</v>
@@ -20895,7 +20896,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>77</v>
@@ -20910,7 +20911,7 @@
         <v>98</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>79</v>
@@ -20919,21 +20920,21 @@
         <v>79</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP146" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20959,13 +20960,13 @@
         <v>106</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20979,7 +20980,7 @@
         <v>79</v>
       </c>
       <c r="T147" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="U147" t="s" s="2">
         <v>79</v>
@@ -20994,10 +20995,10 @@
         <v>292</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>79</v>
@@ -21015,7 +21016,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>77</v>
@@ -21030,7 +21031,7 @@
         <v>98</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>79</v>
@@ -21039,7 +21040,7 @@
         <v>79</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>79</v>
@@ -21050,10 +21051,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -21079,16 +21080,16 @@
         <v>146</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -21101,7 +21102,7 @@
         <v>79</v>
       </c>
       <c r="T148" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="U148" t="s" s="2">
         <v>79</v>
@@ -21137,7 +21138,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -21152,7 +21153,7 @@
         <v>98</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>79</v>
@@ -21161,21 +21162,21 @@
         <v>79</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP148" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21201,10 +21202,10 @@
         <v>146</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -21219,7 +21220,7 @@
         <v>79</v>
       </c>
       <c r="T149" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="U149" t="s" s="2">
         <v>79</v>
@@ -21255,7 +21256,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>77</v>
@@ -21270,7 +21271,7 @@
         <v>98</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>79</v>
@@ -21279,21 +21280,21 @@
         <v>79</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP149" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21319,10 +21320,10 @@
         <v>146</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21408,10 +21409,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21524,13 +21525,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="B152" t="s" s="2">
-        <v>685</v>
-      </c>
       <c r="C152" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>79</v>
@@ -21552,13 +21553,13 @@
         <v>79</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -21624,7 +21625,7 @@
         <v>137</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>79</v>
@@ -21644,13 +21645,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -21672,13 +21673,13 @@
         <v>79</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21744,7 +21745,7 @@
         <v>137</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>79</v>
@@ -21764,13 +21765,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>79</v>
@@ -21792,13 +21793,13 @@
         <v>79</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21864,7 +21865,7 @@
         <v>137</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>79</v>
@@ -21884,13 +21885,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>79</v>
@@ -21912,13 +21913,13 @@
         <v>79</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -22004,10 +22005,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -22033,10 +22034,10 @@
         <v>146</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -22060,7 +22061,7 @@
         <v>79</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="X156" t="s" s="2">
         <v>79</v>
@@ -22087,7 +22088,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>77</v>
@@ -22122,14 +22123,14 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -22151,10 +22152,10 @@
         <v>146</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -22169,7 +22170,7 @@
         <v>79</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>79</v>
@@ -22205,7 +22206,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>77</v>
@@ -22220,7 +22221,7 @@
         <v>98</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>79</v>
@@ -22229,25 +22230,25 @@
         <v>79</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP157" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -22269,13 +22270,13 @@
         <v>146</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -22289,7 +22290,7 @@
         <v>79</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>79</v>
@@ -22325,7 +22326,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>77</v>
@@ -22340,7 +22341,7 @@
         <v>98</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>79</v>
@@ -22349,7 +22350,7 @@
         <v>79</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>79</v>
@@ -22360,14 +22361,14 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22389,10 +22390,10 @@
         <v>146</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -22443,7 +22444,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>77</v>
@@ -22458,7 +22459,7 @@
         <v>98</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>79</v>
@@ -22467,25 +22468,25 @@
         <v>79</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP159" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -22507,10 +22508,10 @@
         <v>146</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22525,7 +22526,7 @@
         <v>79</v>
       </c>
       <c r="T160" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="U160" t="s" s="2">
         <v>79</v>
@@ -22561,7 +22562,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>77</v>
@@ -22576,7 +22577,7 @@
         <v>98</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>79</v>
@@ -22585,21 +22586,21 @@
         <v>79</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP160" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22625,13 +22626,13 @@
         <v>146</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -22681,7 +22682,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>77</v>
@@ -22696,7 +22697,7 @@
         <v>98</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>79</v>
@@ -22705,21 +22706,21 @@
         <v>79</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP161" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22745,14 +22746,14 @@
         <v>258</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -22765,7 +22766,7 @@
         <v>79</v>
       </c>
       <c r="T162" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="U162" t="s" s="2">
         <v>79</v>
@@ -22801,7 +22802,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -22816,7 +22817,7 @@
         <v>98</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>79</v>
@@ -22825,7 +22826,7 @@
         <v>79</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>79</v>
@@ -22836,10 +22837,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22865,14 +22866,14 @@
         <v>173</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -22900,10 +22901,10 @@
         <v>176</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>79</v>
@@ -22921,7 +22922,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>77</v>
@@ -22936,16 +22937,16 @@
         <v>98</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>79</v>
@@ -22956,10 +22957,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -23074,10 +23075,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23194,10 +23195,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23316,10 +23317,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23434,10 +23435,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23554,10 +23555,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23671,15 +23672,15 @@
         <v>79</v>
       </c>
       <c r="AP169" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23796,10 +23797,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23911,15 +23912,15 @@
         <v>79</v>
       </c>
       <c r="AP171" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -24031,15 +24032,15 @@
         <v>79</v>
       </c>
       <c r="AP172" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24158,10 +24159,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24280,10 +24281,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24306,19 +24307,19 @@
         <v>79</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>79</v>
@@ -24355,17 +24356,17 @@
         <v>79</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AC175" s="2"/>
       <c r="AD175" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>77</v>
@@ -24380,7 +24381,7 @@
         <v>98</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>150</v>
@@ -24389,7 +24390,7 @@
         <v>79</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>79</v>
@@ -24400,13 +24401,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>79</v>
@@ -24431,16 +24432,16 @@
         <v>233</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>79</v>
@@ -24489,7 +24490,7 @@
         <v>79</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>77</v>
@@ -24504,7 +24505,7 @@
         <v>98</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>150</v>
@@ -24513,7 +24514,7 @@
         <v>79</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>79</v>
@@ -24524,13 +24525,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>79</v>
@@ -24552,19 +24553,19 @@
         <v>79</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>79</v>
@@ -24613,7 +24614,7 @@
         <v>79</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>
@@ -24628,7 +24629,7 @@
         <v>98</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>150</v>
@@ -24637,7 +24638,7 @@
         <v>79</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>79</v>
@@ -24648,10 +24649,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24674,19 +24675,19 @@
         <v>79</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>79</v>
@@ -24735,7 +24736,7 @@
         <v>79</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>77</v>
@@ -24750,7 +24751,7 @@
         <v>98</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>150</v>
@@ -24759,7 +24760,7 @@
         <v>79</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>79</v>
@@ -24770,10 +24771,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24796,19 +24797,19 @@
         <v>79</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>79</v>
@@ -24857,7 +24858,7 @@
         <v>79</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>77</v>
@@ -24869,10 +24870,10 @@
         <v>79</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>150</v>
@@ -24892,10 +24893,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -25010,10 +25011,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25130,14 +25131,14 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -25159,10 +25160,10 @@
         <v>131</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>156</v>
@@ -25217,7 +25218,7 @@
         <v>79</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>77</v>
@@ -25252,10 +25253,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25281,14 +25282,14 @@
         <v>173</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>79</v>
@@ -25316,10 +25317,10 @@
         <v>176</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>79</v>
@@ -25337,7 +25338,7 @@
         <v>79</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>77</v>
@@ -25361,7 +25362,7 @@
         <v>79</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>79</v>
@@ -25372,10 +25373,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25490,10 +25491,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25610,10 +25611,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25732,10 +25733,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25850,10 +25851,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25970,10 +25971,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -26087,15 +26088,15 @@
         <v>79</v>
       </c>
       <c r="AP189" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26212,10 +26213,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26327,15 +26328,15 @@
         <v>79</v>
       </c>
       <c r="AP191" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26447,15 +26448,15 @@
         <v>79</v>
       </c>
       <c r="AP192" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26574,10 +26575,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26696,10 +26697,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26722,17 +26723,17 @@
         <v>79</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>79</v>
@@ -26781,7 +26782,7 @@
         <v>79</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>77</v>
@@ -26796,7 +26797,7 @@
         <v>98</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>150</v>
@@ -26805,7 +26806,7 @@
         <v>79</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>79</v>
@@ -26816,10 +26817,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26934,10 +26935,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -27054,10 +27055,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27083,16 +27084,16 @@
         <v>106</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>79</v>
@@ -27120,10 +27121,10 @@
         <v>292</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>79</v>
@@ -27141,7 +27142,7 @@
         <v>79</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>77</v>
@@ -27156,7 +27157,7 @@
         <v>98</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL198" t="s" s="2">
         <v>79</v>
@@ -27165,7 +27166,7 @@
         <v>79</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>79</v>
@@ -27176,10 +27177,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27205,16 +27206,16 @@
         <v>146</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>79</v>
@@ -27263,7 +27264,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>77</v>
@@ -27278,7 +27279,7 @@
         <v>98</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>79</v>
@@ -27287,7 +27288,7 @@
         <v>79</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>79</v>
@@ -27298,14 +27299,14 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -27327,13 +27328,13 @@
         <v>146</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
@@ -27383,7 +27384,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>77</v>
@@ -27398,7 +27399,7 @@
         <v>98</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>79</v>
@@ -27407,25 +27408,25 @@
         <v>79</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP200" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
@@ -27447,13 +27448,13 @@
         <v>146</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -27503,7 +27504,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>77</v>
@@ -27518,7 +27519,7 @@
         <v>98</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>79</v>
@@ -27527,21 +27528,21 @@
         <v>79</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP201" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27567,10 +27568,10 @@
         <v>146</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27621,7 +27622,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>77</v>
@@ -27636,7 +27637,7 @@
         <v>98</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>79</v>
@@ -27645,7 +27646,7 @@
         <v>79</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>79</v>
@@ -27656,10 +27657,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27685,10 +27686,10 @@
         <v>146</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27739,7 +27740,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>77</v>
@@ -27754,7 +27755,7 @@
         <v>98</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>79</v>
@@ -27763,7 +27764,7 @@
         <v>79</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>79</v>
@@ -27774,10 +27775,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27803,14 +27804,14 @@
         <v>258</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -27859,7 +27860,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>77</v>
@@ -27874,7 +27875,7 @@
         <v>98</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL204" t="s" s="2">
         <v>79</v>
@@ -27883,7 +27884,7 @@
         <v>79</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>79</v>
@@ -27894,10 +27895,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27920,19 +27921,19 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27981,7 +27982,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>77</v>
@@ -27996,7 +27997,7 @@
         <v>98</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AL205" t="s" s="2">
         <v>150</v>
@@ -28005,7 +28006,7 @@
         <v>79</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>79</v>
@@ -28016,10 +28017,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28134,10 +28135,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28254,10 +28255,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28283,10 +28284,10 @@
         <v>106</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -28316,10 +28317,10 @@
         <v>292</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AA208" t="s" s="2">
         <v>79</v>
@@ -28337,7 +28338,7 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>77</v>
@@ -28346,13 +28347,13 @@
         <v>86</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>79</v>
@@ -28361,21 +28362,21 @@
         <v>79</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP208" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28401,16 +28402,16 @@
         <v>146</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>79</v>
@@ -28459,7 +28460,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>77</v>
@@ -28474,7 +28475,7 @@
         <v>98</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>79</v>
@@ -28483,21 +28484,21 @@
         <v>79</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP209" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28523,16 +28524,16 @@
         <v>106</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>79</v>
@@ -28560,10 +28561,10 @@
         <v>292</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>79</v>
@@ -28581,7 +28582,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>77</v>
@@ -28596,7 +28597,7 @@
         <v>98</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>79</v>
@@ -28605,21 +28606,21 @@
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP210" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28642,16 +28643,16 @@
         <v>87</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28701,7 +28702,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>77</v>
@@ -28736,10 +28737,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28765,10 +28766,10 @@
         <v>258</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -28819,7 +28820,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>77</v>
@@ -28834,7 +28835,7 @@
         <v>98</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>79</v>
@@ -28854,10 +28855,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28880,19 +28881,19 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -28941,7 +28942,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>77</v>
@@ -28953,10 +28954,10 @@
         <v>143</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL213" t="s" s="2">
         <v>79</v>
@@ -28965,7 +28966,7 @@
         <v>79</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>79</v>
@@ -28976,10 +28977,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29094,10 +29095,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -29214,10 +29215,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29243,16 +29244,16 @@
         <v>106</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
@@ -29265,7 +29266,7 @@
         <v>79</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>79</v>
@@ -29280,10 +29281,10 @@
         <v>292</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>79</v>
@@ -29301,7 +29302,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>77</v>
@@ -29316,7 +29317,7 @@
         <v>98</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL216" t="s" s="2">
         <v>79</v>
@@ -29325,21 +29326,21 @@
         <v>79</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP216" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29365,13 +29366,13 @@
         <v>106</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -29385,7 +29386,7 @@
         <v>79</v>
       </c>
       <c r="T217" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="U217" t="s" s="2">
         <v>79</v>
@@ -29400,10 +29401,10 @@
         <v>292</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>79</v>
@@ -29421,7 +29422,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>77</v>
@@ -29436,7 +29437,7 @@
         <v>98</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>79</v>
@@ -29445,7 +29446,7 @@
         <v>79</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29456,10 +29457,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29485,16 +29486,16 @@
         <v>146</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29507,7 +29508,7 @@
         <v>79</v>
       </c>
       <c r="T218" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="U218" t="s" s="2">
         <v>79</v>
@@ -29543,7 +29544,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>77</v>
@@ -29558,7 +29559,7 @@
         <v>98</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL218" t="s" s="2">
         <v>79</v>
@@ -29567,21 +29568,21 @@
         <v>79</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP218" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29607,10 +29608,10 @@
         <v>146</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -29625,7 +29626,7 @@
         <v>79</v>
       </c>
       <c r="T219" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="U219" t="s" s="2">
         <v>79</v>
@@ -29661,7 +29662,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>77</v>
@@ -29676,7 +29677,7 @@
         <v>98</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AL219" t="s" s="2">
         <v>79</v>
@@ -29685,21 +29686,21 @@
         <v>79</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP219" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29725,10 +29726,10 @@
         <v>146</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -29814,10 +29815,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29930,13 +29931,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="B222" t="s" s="2">
         <v>887</v>
       </c>
-      <c r="B222" t="s" s="2">
-        <v>886</v>
-      </c>
       <c r="C222" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D222" t="s" s="2">
         <v>79</v>
@@ -29958,13 +29959,13 @@
         <v>79</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -30030,7 +30031,7 @@
         <v>137</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>79</v>
@@ -30050,13 +30051,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>79</v>
@@ -30078,13 +30079,13 @@
         <v>79</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -30150,7 +30151,7 @@
         <v>137</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>79</v>
@@ -30170,13 +30171,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>79</v>
@@ -30198,13 +30199,13 @@
         <v>79</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -30270,7 +30271,7 @@
         <v>137</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AL224" t="s" s="2">
         <v>79</v>
@@ -30290,13 +30291,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>79</v>
@@ -30318,13 +30319,13 @@
         <v>79</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -30410,10 +30411,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30439,10 +30440,10 @@
         <v>146</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -30466,7 +30467,7 @@
         <v>79</v>
       </c>
       <c r="W226" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="X226" t="s" s="2">
         <v>79</v>
@@ -30493,7 +30494,7 @@
         <v>79</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>77</v>
@@ -30528,14 +30529,14 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" t="s" s="2">
@@ -30557,10 +30558,10 @@
         <v>146</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -30575,7 +30576,7 @@
         <v>79</v>
       </c>
       <c r="T227" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="U227" t="s" s="2">
         <v>79</v>
@@ -30611,7 +30612,7 @@
         <v>79</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>77</v>
@@ -30626,7 +30627,7 @@
         <v>98</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>79</v>
@@ -30635,25 +30636,25 @@
         <v>79</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AO227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP227" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
@@ -30675,13 +30676,13 @@
         <v>146</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -30695,7 +30696,7 @@
         <v>79</v>
       </c>
       <c r="T228" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="U228" t="s" s="2">
         <v>79</v>
@@ -30731,7 +30732,7 @@
         <v>79</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>77</v>
@@ -30746,7 +30747,7 @@
         <v>98</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>79</v>
@@ -30755,7 +30756,7 @@
         <v>79</v>
       </c>
       <c r="AN228" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AO228" t="s" s="2">
         <v>79</v>
@@ -30766,14 +30767,14 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
@@ -30795,10 +30796,10 @@
         <v>146</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -30849,7 +30850,7 @@
         <v>79</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>77</v>
@@ -30864,7 +30865,7 @@
         <v>98</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AL229" t="s" s="2">
         <v>79</v>
@@ -30873,25 +30874,25 @@
         <v>79</v>
       </c>
       <c r="AN229" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AO229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP229" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
@@ -30913,10 +30914,10 @@
         <v>146</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -30931,7 +30932,7 @@
         <v>79</v>
       </c>
       <c r="T230" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="U230" t="s" s="2">
         <v>79</v>
@@ -30967,7 +30968,7 @@
         <v>79</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>77</v>
@@ -30982,7 +30983,7 @@
         <v>98</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AL230" t="s" s="2">
         <v>79</v>
@@ -30991,21 +30992,21 @@
         <v>79</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AO230" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP230" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31031,13 +31032,13 @@
         <v>146</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -31087,7 +31088,7 @@
         <v>79</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>77</v>
@@ -31102,7 +31103,7 @@
         <v>98</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>79</v>
@@ -31111,21 +31112,21 @@
         <v>79</v>
       </c>
       <c r="AN231" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AO231" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP231" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31151,14 +31152,14 @@
         <v>258</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>79</v>
@@ -31171,7 +31172,7 @@
         <v>79</v>
       </c>
       <c r="T232" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="U232" t="s" s="2">
         <v>79</v>
@@ -31207,7 +31208,7 @@
         <v>79</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>77</v>
@@ -31222,7 +31223,7 @@
         <v>98</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL232" t="s" s="2">
         <v>79</v>
@@ -31231,7 +31232,7 @@
         <v>79</v>
       </c>
       <c r="AN232" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AO232" t="s" s="2">
         <v>79</v>
@@ -31242,10 +31243,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31271,14 +31272,14 @@
         <v>106</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>79</v>
@@ -31306,10 +31307,10 @@
         <v>292</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z233" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA233" t="s" s="2">
         <v>79</v>
@@ -31327,7 +31328,7 @@
         <v>79</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>77</v>
@@ -31342,7 +31343,7 @@
         <v>98</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AL233" t="s" s="2">
         <v>150</v>
@@ -31351,7 +31352,7 @@
         <v>79</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AO233" t="s" s="2">
         <v>79</v>
@@ -31362,10 +31363,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31391,14 +31392,14 @@
         <v>329</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>79</v>
@@ -31447,7 +31448,7 @@
         <v>79</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>77</v>
@@ -31456,13 +31457,13 @@
         <v>86</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AL234" t="s" s="2">
         <v>150</v>
@@ -31471,21 +31472,21 @@
         <v>79</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AO234" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP234" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31511,10 +31512,10 @@
         <v>258</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -31565,7 +31566,7 @@
         <v>79</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>77</v>
@@ -31580,7 +31581,7 @@
         <v>98</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AL235" t="s" s="2">
         <v>150</v>
@@ -31600,10 +31601,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31626,19 +31627,19 @@
         <v>79</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>79</v>
@@ -31687,7 +31688,7 @@
         <v>79</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>77</v>
@@ -31702,10 +31703,10 @@
         <v>98</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>79</v>
@@ -31722,10 +31723,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31840,10 +31841,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31960,14 +31961,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
@@ -31989,10 +31990,10 @@
         <v>131</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N239" t="s" s="2">
         <v>156</v>
@@ -32047,7 +32048,7 @@
         <v>79</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>77</v>
@@ -32082,10 +32083,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32111,16 +32112,16 @@
         <v>173</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>79</v>
@@ -32169,7 +32170,7 @@
         <v>79</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>86</v>
@@ -32184,30 +32185,30 @@
         <v>98</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AM240" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN240" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AO240" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP240" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32233,16 +32234,16 @@
         <v>233</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>79</v>
@@ -32291,7 +32292,7 @@
         <v>79</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>77</v>
@@ -32306,34 +32307,34 @@
         <v>98</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AM241" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN241" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AO241" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP241" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
@@ -32352,16 +32353,16 @@
         <v>79</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
@@ -32411,7 +32412,7 @@
         <v>79</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>77</v>
@@ -32426,7 +32427,7 @@
         <v>98</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AL242" t="s" s="2">
         <v>150</v>
@@ -32435,21 +32436,21 @@
         <v>79</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AO242" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP242" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -32475,16 +32476,16 @@
         <v>329</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>79</v>
@@ -32533,7 +32534,7 @@
         <v>79</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>77</v>
@@ -32548,10 +32549,10 @@
         <v>98</v>
       </c>
       <c r="AK243" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>79</v>
@@ -32563,15 +32564,15 @@
         <v>79</v>
       </c>
       <c r="AP243" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -32594,19 +32595,19 @@
         <v>87</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P244" t="s" s="2">
         <v>79</v>
@@ -32655,7 +32656,7 @@
         <v>79</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>77</v>
@@ -32670,7 +32671,7 @@
         <v>98</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AL244" t="s" s="2">
         <v>150</v>
@@ -32690,10 +32691,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32808,10 +32809,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32928,14 +32929,14 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -32957,10 +32958,10 @@
         <v>131</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>156</v>
@@ -33015,7 +33016,7 @@
         <v>79</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>77</v>
@@ -33050,10 +33051,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33076,16 +33077,16 @@
         <v>87</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="O248" s="2"/>
       <c r="P248" t="s" s="2">
@@ -33135,7 +33136,7 @@
         <v>79</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>86</v>
@@ -33159,7 +33160,7 @@
         <v>79</v>
       </c>
       <c r="AN248" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AO248" t="s" s="2">
         <v>79</v>
@@ -33170,10 +33171,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33199,10 +33200,10 @@
         <v>106</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -33232,10 +33233,10 @@
         <v>292</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Z249" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AA249" t="s" s="2">
         <v>79</v>
@@ -33253,7 +33254,7 @@
         <v>79</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>86</v>
@@ -33268,7 +33269,7 @@
         <v>98</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AL249" t="s" s="2">
         <v>150</v>

--- a/r4-core-57-Patient-Identifier-TypeCodes/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-57-Patient-Identifier-TypeCodes/StructureDefinition-at-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9506" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9504" uniqueCount="981">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:10:02+00:00</t>
+    <t>2023-02-23T15:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1071,10 +1071,7 @@
     <t>Patient.identifier:socialSecurityNumber.type</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>https://termgit.elga.gv.at/ValueSet/elga-patientidentifier</t>
   </si>
   <si>
     <t>Patient.identifier:socialSecurityNumber.type.id</t>
@@ -1401,9 +1398,6 @@
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type</t>
-  </si>
-  <si>
-    <t>https://termgit.elga.gv.at/ValueSet/elga-patientidentifier</t>
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type.id</t>
@@ -3368,7 +3362,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="70.3359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
@@ -9442,11 +9436,9 @@
       <c r="X51" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Y51" s="2"/>
+      <c r="Z51" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -9499,10 +9491,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9617,10 +9609,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9737,10 +9729,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9859,10 +9851,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9977,10 +9969,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -10097,10 +10089,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -10126,7 +10118,7 @@
         <v>100</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>200</v>
@@ -10142,7 +10134,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>79</v>
@@ -10219,10 +10211,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10339,10 +10331,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10382,7 +10374,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>79</v>
@@ -10459,10 +10451,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10502,7 +10494,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>79</v>
@@ -10579,10 +10571,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10701,10 +10693,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10823,7 +10815,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>305</v>
@@ -10852,7 +10844,7 @@
         <v>100</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>307</v>
@@ -10868,7 +10860,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>79</v>
@@ -10940,12 +10932,12 @@
         <v>79</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>314</v>
@@ -11060,12 +11052,12 @@
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>322</v>
@@ -11183,7 +11175,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>328</v>
@@ -11303,10 +11295,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11421,10 +11413,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11541,10 +11533,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11570,13 +11562,13 @@
         <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11626,16 +11618,16 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>98</v>
@@ -11661,10 +11653,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11690,13 +11682,13 @@
         <v>100</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11725,28 +11717,28 @@
         <v>176</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z70" t="s" s="2">
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -11781,10 +11773,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11810,13 +11802,13 @@
         <v>276</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11866,7 +11858,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -11881,7 +11873,7 @@
         <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -11901,10 +11893,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11930,13 +11922,13 @@
         <v>146</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11944,49 +11936,49 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -12021,13 +12013,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>275</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>79</v>
@@ -12143,7 +12135,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>285</v>
@@ -12261,7 +12253,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>286</v>
@@ -12381,7 +12373,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>287</v>
@@ -12503,7 +12495,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>297</v>
@@ -12568,11 +12560,9 @@
       <c r="X77" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y77" t="s" s="2">
+      <c r="Y77" s="2"/>
+      <c r="Z77" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -12625,10 +12615,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12743,10 +12733,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12863,10 +12853,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12985,10 +12975,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -13103,10 +13093,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13223,10 +13213,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13252,7 +13242,7 @@
         <v>100</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>200</v>
@@ -13268,7 +13258,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -13345,10 +13335,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13465,10 +13455,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13508,7 +13498,7 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>79</v>
@@ -13585,10 +13575,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13628,7 +13618,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>79</v>
@@ -13705,10 +13695,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13827,10 +13817,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13949,7 +13939,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>305</v>
@@ -13978,7 +13968,7 @@
         <v>100</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>307</v>
@@ -13994,7 +13984,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>79</v>
@@ -14066,12 +14056,12 @@
         <v>79</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>314</v>
@@ -14186,12 +14176,12 @@
         <v>79</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>322</v>
@@ -14309,7 +14299,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>328</v>
@@ -14429,10 +14419,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14547,10 +14537,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14667,10 +14657,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14696,13 +14686,13 @@
         <v>146</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14752,16 +14742,16 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI95" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>98</v>
@@ -14787,10 +14777,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14816,13 +14806,13 @@
         <v>100</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14851,28 +14841,28 @@
         <v>176</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z96" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Z96" t="s" s="2">
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF96" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -14907,10 +14897,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14936,13 +14926,13 @@
         <v>276</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14992,7 +14982,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -15007,7 +14997,7 @@
         <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>79</v>
@@ -15027,10 +15017,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -15056,13 +15046,13 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -15070,7 +15060,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>79</v>
@@ -15112,7 +15102,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -15147,13 +15137,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>275</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>79</v>
@@ -15269,7 +15259,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>285</v>
@@ -15387,7 +15377,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>286</v>
@@ -15507,7 +15497,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>287</v>
@@ -15629,7 +15619,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>297</v>
@@ -15696,7 +15686,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>451</v>
+        <v>342</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
@@ -15749,10 +15739,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15867,10 +15857,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15987,10 +15977,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -16109,10 +16099,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -16227,10 +16217,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16347,10 +16337,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16376,7 +16366,7 @@
         <v>100</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>200</v>
@@ -16392,7 +16382,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>79</v>
@@ -16469,10 +16459,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16589,10 +16579,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16632,7 +16622,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>79</v>
@@ -16709,10 +16699,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16752,7 +16742,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>79</v>
@@ -16829,10 +16819,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16951,10 +16941,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -17073,7 +17063,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>305</v>
@@ -17102,7 +17092,7 @@
         <v>100</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>307</v>
@@ -17190,12 +17180,12 @@
         <v>79</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>314</v>
@@ -17310,12 +17300,12 @@
         <v>79</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>322</v>
@@ -17433,7 +17423,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>328</v>
@@ -17553,10 +17543,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17582,23 +17572,23 @@
         <v>233</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="N119" t="s" s="2">
+      <c r="P119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q119" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="O119" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q119" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="R119" t="s" s="2">
         <v>79</v>
       </c>
@@ -17642,7 +17632,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -17657,13 +17647,13 @@
         <v>98</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -17677,10 +17667,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17703,19 +17693,19 @@
         <v>87</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>79</v>
@@ -17764,7 +17754,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -17779,30 +17769,30 @@
         <v>98</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL120" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="AO120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17917,10 +17907,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -18037,10 +18027,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18066,16 +18056,16 @@
         <v>106</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -18103,28 +18093,28 @@
         <v>292</v>
       </c>
       <c r="Y123" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF123" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -18139,7 +18129,7 @@
         <v>98</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>79</v>
@@ -18148,7 +18138,7 @@
         <v>79</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>79</v>
@@ -18159,10 +18149,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18188,16 +18178,16 @@
         <v>146</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -18246,7 +18236,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -18261,7 +18251,7 @@
         <v>98</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>79</v>
@@ -18270,7 +18260,7 @@
         <v>79</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>79</v>
@@ -18281,14 +18271,14 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -18310,13 +18300,13 @@
         <v>146</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -18366,7 +18356,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -18381,34 +18371,34 @@
         <v>98</v>
       </c>
       <c r="AK125" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP125" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -18430,13 +18420,13 @@
         <v>146</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -18486,7 +18476,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
@@ -18501,30 +18491,30 @@
         <v>98</v>
       </c>
       <c r="AK126" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP126" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP126" t="s" s="2">
-        <v>526</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18550,10 +18540,10 @@
         <v>146</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -18604,7 +18594,7 @@
         <v>79</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
@@ -18619,30 +18609,30 @@
         <v>98</v>
       </c>
       <c r="AK127" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP127" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>533</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18668,10 +18658,10 @@
         <v>146</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -18722,7 +18712,7 @@
         <v>79</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -18737,30 +18727,30 @@
         <v>98</v>
       </c>
       <c r="AK128" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP128" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP128" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18786,14 +18776,14 @@
         <v>258</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>79</v>
@@ -18842,7 +18832,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -18857,7 +18847,7 @@
         <v>98</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>79</v>
@@ -18866,7 +18856,7 @@
         <v>79</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>79</v>
@@ -18877,10 +18867,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18903,19 +18893,19 @@
         <v>87</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -18964,7 +18954,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -18979,16 +18969,16 @@
         <v>98</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>79</v>
@@ -18999,10 +18989,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -19117,10 +19107,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19237,10 +19227,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19266,10 +19256,10 @@
         <v>106</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -19299,66 +19289,66 @@
         <v>292</v>
       </c>
       <c r="Y133" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF133" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="Z133" t="s" s="2">
+      <c r="AG133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI133" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP133" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP133" t="s" s="2">
-        <v>568</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19384,16 +19374,16 @@
         <v>146</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -19442,7 +19432,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -19457,7 +19447,7 @@
         <v>98</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>79</v>
@@ -19466,21 +19456,21 @@
         <v>79</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19506,16 +19496,16 @@
         <v>106</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -19543,28 +19533,28 @@
         <v>292</v>
       </c>
       <c r="Y135" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF135" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -19579,7 +19569,7 @@
         <v>98</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>79</v>
@@ -19588,21 +19578,21 @@
         <v>79</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19625,16 +19615,16 @@
         <v>87</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -19684,7 +19674,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>77</v>
@@ -19719,10 +19709,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19748,10 +19738,10 @@
         <v>258</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -19802,7 +19792,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>77</v>
@@ -19817,7 +19807,7 @@
         <v>98</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>79</v>
@@ -19837,10 +19827,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19866,16 +19856,16 @@
         <v>106</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -19903,10 +19893,10 @@
         <v>292</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>79</v>
@@ -19924,7 +19914,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -19939,30 +19929,30 @@
         <v>98</v>
       </c>
       <c r="AK138" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN138" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AL138" t="s" s="2">
+      <c r="AO138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP138" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP138" t="s" s="2">
-        <v>607</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19985,19 +19975,19 @@
         <v>87</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>79</v>
@@ -20046,7 +20036,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>77</v>
@@ -20061,30 +20051,30 @@
         <v>98</v>
       </c>
       <c r="AK139" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN139" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="AL139" t="s" s="2">
+      <c r="AO139" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AM139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN139" t="s" s="2">
+      <c r="AP139" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AP139" t="s" s="2">
-        <v>618</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20107,19 +20097,19 @@
         <v>87</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>79</v>
@@ -20156,17 +20146,17 @@
         <v>79</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AC140" s="2"/>
       <c r="AD140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>77</v>
@@ -20181,7 +20171,7 @@
         <v>98</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>150</v>
@@ -20190,7 +20180,7 @@
         <v>79</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>79</v>
@@ -20201,13 +20191,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>79</v>
@@ -20232,16 +20222,16 @@
         <v>233</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>79</v>
@@ -20290,7 +20280,7 @@
         <v>79</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
@@ -20305,7 +20295,7 @@
         <v>98</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>150</v>
@@ -20314,24 +20304,24 @@
         <v>79</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D142" t="s" s="2">
         <v>79</v>
@@ -20353,19 +20343,19 @@
         <v>87</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>79</v>
@@ -20414,7 +20404,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
@@ -20429,7 +20419,7 @@
         <v>98</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>150</v>
@@ -20438,21 +20428,21 @@
         <v>79</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20475,19 +20465,19 @@
         <v>79</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -20536,7 +20526,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>77</v>
@@ -20548,19 +20538,19 @@
         <v>143</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN143" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>79</v>
@@ -20571,10 +20561,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20689,10 +20679,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20809,10 +20799,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20838,16 +20828,16 @@
         <v>106</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>79</v>
@@ -20860,7 +20850,7 @@
         <v>79</v>
       </c>
       <c r="T146" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="U146" t="s" s="2">
         <v>79</v>
@@ -20875,28 +20865,28 @@
         <v>292</v>
       </c>
       <c r="Y146" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF146" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>77</v>
@@ -20911,7 +20901,7 @@
         <v>98</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>79</v>
@@ -20920,21 +20910,21 @@
         <v>79</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP146" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20960,13 +20950,13 @@
         <v>106</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20980,7 +20970,7 @@
         <v>79</v>
       </c>
       <c r="T147" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="U147" t="s" s="2">
         <v>79</v>
@@ -20995,28 +20985,28 @@
         <v>292</v>
       </c>
       <c r="Y147" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF147" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>77</v>
@@ -21031,7 +21021,7 @@
         <v>98</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>79</v>
@@ -21040,7 +21030,7 @@
         <v>79</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>79</v>
@@ -21051,10 +21041,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -21080,16 +21070,16 @@
         <v>146</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M148" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>670</v>
-      </c>
       <c r="O148" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -21102,7 +21092,7 @@
         <v>79</v>
       </c>
       <c r="T148" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="U148" t="s" s="2">
         <v>79</v>
@@ -21138,7 +21128,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -21153,7 +21143,7 @@
         <v>98</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>79</v>
@@ -21162,21 +21152,21 @@
         <v>79</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP148" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21202,10 +21192,10 @@
         <v>146</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -21220,7 +21210,7 @@
         <v>79</v>
       </c>
       <c r="T149" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="U149" t="s" s="2">
         <v>79</v>
@@ -21256,7 +21246,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>77</v>
@@ -21271,30 +21261,30 @@
         <v>98</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AO149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP149" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP149" t="s" s="2">
-        <v>682</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21320,10 +21310,10 @@
         <v>146</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21409,10 +21399,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21525,13 +21515,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B152" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="C152" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>79</v>
@@ -21553,13 +21543,13 @@
         <v>79</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -21625,7 +21615,7 @@
         <v>137</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>79</v>
@@ -21645,13 +21635,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -21673,13 +21663,13 @@
         <v>79</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21745,7 +21735,7 @@
         <v>137</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>79</v>
@@ -21765,13 +21755,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>79</v>
@@ -21793,13 +21783,13 @@
         <v>79</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21865,7 +21855,7 @@
         <v>137</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>79</v>
@@ -21885,13 +21875,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>79</v>
@@ -21913,13 +21903,13 @@
         <v>79</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -22005,10 +21995,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -22034,10 +22024,10 @@
         <v>146</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -22061,7 +22051,7 @@
         <v>79</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="X156" t="s" s="2">
         <v>79</v>
@@ -22088,7 +22078,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>77</v>
@@ -22123,14 +22113,14 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -22152,10 +22142,10 @@
         <v>146</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -22170,7 +22160,7 @@
         <v>79</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>79</v>
@@ -22206,7 +22196,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>77</v>
@@ -22221,34 +22211,34 @@
         <v>98</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="AO157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP157" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="AO157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP157" t="s" s="2">
-        <v>722</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -22270,13 +22260,13 @@
         <v>146</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -22290,7 +22280,7 @@
         <v>79</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>79</v>
@@ -22326,7 +22316,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>77</v>
@@ -22341,7 +22331,7 @@
         <v>98</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>79</v>
@@ -22350,7 +22340,7 @@
         <v>79</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>79</v>
@@ -22361,14 +22351,14 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22390,10 +22380,10 @@
         <v>146</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -22444,7 +22434,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>77</v>
@@ -22459,34 +22449,34 @@
         <v>98</v>
       </c>
       <c r="AK159" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="AO159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP159" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="AO159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP159" t="s" s="2">
-        <v>739</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -22508,10 +22498,10 @@
         <v>146</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22526,7 +22516,7 @@
         <v>79</v>
       </c>
       <c r="T160" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="U160" t="s" s="2">
         <v>79</v>
@@ -22562,7 +22552,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>77</v>
@@ -22577,30 +22567,30 @@
         <v>98</v>
       </c>
       <c r="AK160" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AO160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP160" t="s" s="2">
         <v>746</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP160" t="s" s="2">
-        <v>748</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22626,13 +22616,13 @@
         <v>146</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="N161" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -22682,7 +22672,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>77</v>
@@ -22697,30 +22687,30 @@
         <v>98</v>
       </c>
       <c r="AK161" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="AO161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP161" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP161" t="s" s="2">
-        <v>756</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22746,14 +22736,14 @@
         <v>258</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -22766,7 +22756,7 @@
         <v>79</v>
       </c>
       <c r="T162" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="U162" t="s" s="2">
         <v>79</v>
@@ -22802,7 +22792,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -22817,7 +22807,7 @@
         <v>98</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>79</v>
@@ -22826,7 +22816,7 @@
         <v>79</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>79</v>
@@ -22837,10 +22827,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22866,14 +22856,14 @@
         <v>173</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -22901,10 +22891,10 @@
         <v>176</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>79</v>
@@ -22922,7 +22912,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>77</v>
@@ -22937,16 +22927,16 @@
         <v>98</v>
       </c>
       <c r="AK163" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="AM163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN163" t="s" s="2">
         <v>770</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN163" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>79</v>
@@ -22957,10 +22947,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -23075,10 +23065,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23195,10 +23185,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23317,10 +23307,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23435,10 +23425,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23555,10 +23545,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23584,7 +23574,7 @@
         <v>100</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M169" t="s" s="2">
         <v>200</v>
@@ -23672,15 +23662,15 @@
         <v>79</v>
       </c>
       <c r="AP169" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23797,10 +23787,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23912,15 +23902,15 @@
         <v>79</v>
       </c>
       <c r="AP171" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -24032,15 +24022,15 @@
         <v>79</v>
       </c>
       <c r="AP172" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24159,10 +24149,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24281,10 +24271,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24307,19 +24297,19 @@
         <v>79</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="O175" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>79</v>
@@ -24356,17 +24346,17 @@
         <v>79</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AC175" s="2"/>
       <c r="AD175" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>77</v>
@@ -24381,7 +24371,7 @@
         <v>98</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>150</v>
@@ -24390,7 +24380,7 @@
         <v>79</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>79</v>
@@ -24401,13 +24391,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>79</v>
@@ -24432,16 +24422,16 @@
         <v>233</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="N176" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="O176" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>79</v>
@@ -24490,7 +24480,7 @@
         <v>79</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>77</v>
@@ -24505,7 +24495,7 @@
         <v>98</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>150</v>
@@ -24514,7 +24504,7 @@
         <v>79</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>79</v>
@@ -24525,13 +24515,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>79</v>
@@ -24553,19 +24543,19 @@
         <v>79</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="L177" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="N177" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="O177" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>79</v>
@@ -24614,7 +24604,7 @@
         <v>79</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>
@@ -24629,7 +24619,7 @@
         <v>98</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>150</v>
@@ -24638,7 +24628,7 @@
         <v>79</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>79</v>
@@ -24649,10 +24639,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24675,19 +24665,19 @@
         <v>79</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>801</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>802</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="O178" t="s" s="2">
         <v>803</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>79</v>
@@ -24736,7 +24726,7 @@
         <v>79</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>77</v>
@@ -24751,7 +24741,7 @@
         <v>98</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>150</v>
@@ -24760,7 +24750,7 @@
         <v>79</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>79</v>
@@ -24771,10 +24761,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24797,19 +24787,19 @@
         <v>79</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>79</v>
@@ -24858,7 +24848,7 @@
         <v>79</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>77</v>
@@ -24870,10 +24860,10 @@
         <v>79</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>150</v>
@@ -24893,10 +24883,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -25011,10 +25001,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25131,14 +25121,14 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -25160,10 +25150,10 @@
         <v>131</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>156</v>
@@ -25218,7 +25208,7 @@
         <v>79</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>77</v>
@@ -25253,10 +25243,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25282,14 +25272,14 @@
         <v>173</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>79</v>
@@ -25317,10 +25307,10 @@
         <v>176</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>79</v>
@@ -25338,7 +25328,7 @@
         <v>79</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>77</v>
@@ -25362,7 +25352,7 @@
         <v>79</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>79</v>
@@ -25373,10 +25363,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25491,10 +25481,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25611,10 +25601,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25733,10 +25723,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25851,10 +25841,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25971,10 +25961,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -26000,7 +25990,7 @@
         <v>100</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>200</v>
@@ -26088,15 +26078,15 @@
         <v>79</v>
       </c>
       <c r="AP189" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26213,10 +26203,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26328,15 +26318,15 @@
         <v>79</v>
       </c>
       <c r="AP191" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26448,15 +26438,15 @@
         <v>79</v>
       </c>
       <c r="AP192" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26575,10 +26565,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26697,10 +26687,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26723,17 +26713,17 @@
         <v>79</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>79</v>
@@ -26782,7 +26772,7 @@
         <v>79</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>77</v>
@@ -26797,7 +26787,7 @@
         <v>98</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>150</v>
@@ -26806,7 +26796,7 @@
         <v>79</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>79</v>
@@ -26817,10 +26807,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26935,10 +26925,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -27055,10 +27045,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27084,16 +27074,16 @@
         <v>106</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N198" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="O198" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>79</v>
@@ -27121,28 +27111,28 @@
         <v>292</v>
       </c>
       <c r="Y198" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF198" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>77</v>
@@ -27157,7 +27147,7 @@
         <v>98</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL198" t="s" s="2">
         <v>79</v>
@@ -27166,7 +27156,7 @@
         <v>79</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>79</v>
@@ -27177,10 +27167,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27206,16 +27196,16 @@
         <v>146</v>
       </c>
       <c r="L199" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N199" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="O199" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>79</v>
@@ -27264,7 +27254,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>77</v>
@@ -27279,7 +27269,7 @@
         <v>98</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>79</v>
@@ -27288,7 +27278,7 @@
         <v>79</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>79</v>
@@ -27299,14 +27289,14 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -27328,13 +27318,13 @@
         <v>146</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
@@ -27384,7 +27374,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>77</v>
@@ -27399,7 +27389,7 @@
         <v>98</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>79</v>
@@ -27408,25 +27398,25 @@
         <v>79</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP200" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
@@ -27448,13 +27438,13 @@
         <v>146</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N201" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M201" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -27504,7 +27494,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>77</v>
@@ -27519,7 +27509,7 @@
         <v>98</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>79</v>
@@ -27528,21 +27518,21 @@
         <v>79</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP201" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27568,10 +27558,10 @@
         <v>146</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27622,7 +27612,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>77</v>
@@ -27637,7 +27627,7 @@
         <v>98</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>79</v>
@@ -27646,7 +27636,7 @@
         <v>79</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>79</v>
@@ -27657,10 +27647,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27686,10 +27676,10 @@
         <v>146</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27740,7 +27730,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>77</v>
@@ -27755,7 +27745,7 @@
         <v>98</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>79</v>
@@ -27764,7 +27754,7 @@
         <v>79</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>79</v>
@@ -27775,10 +27765,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27804,14 +27794,14 @@
         <v>258</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -27860,7 +27850,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>77</v>
@@ -27875,7 +27865,7 @@
         <v>98</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AL204" t="s" s="2">
         <v>79</v>
@@ -27884,7 +27874,7 @@
         <v>79</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>79</v>
@@ -27895,10 +27885,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27921,19 +27911,19 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L205" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="N205" t="s" s="2">
         <v>861</v>
       </c>
-      <c r="M205" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>863</v>
-      </c>
       <c r="O205" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27982,7 +27972,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>77</v>
@@ -27997,7 +27987,7 @@
         <v>98</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AL205" t="s" s="2">
         <v>150</v>
@@ -28006,7 +27996,7 @@
         <v>79</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>79</v>
@@ -28017,10 +28007,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28135,10 +28125,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28255,10 +28245,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28284,10 +28274,10 @@
         <v>106</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -28317,43 +28307,43 @@
         <v>292</v>
       </c>
       <c r="Y208" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF208" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="Z208" t="s" s="2">
+      <c r="AG208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI208" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AG208" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH208" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI208" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>79</v>
@@ -28362,21 +28352,21 @@
         <v>79</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP208" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28402,16 +28392,16 @@
         <v>146</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N209" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="O209" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>79</v>
@@ -28460,7 +28450,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>77</v>
@@ -28475,7 +28465,7 @@
         <v>98</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>79</v>
@@ -28484,21 +28474,21 @@
         <v>79</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP209" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28524,16 +28514,16 @@
         <v>106</v>
       </c>
       <c r="L210" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N210" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="O210" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>79</v>
@@ -28561,28 +28551,28 @@
         <v>292</v>
       </c>
       <c r="Y210" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF210" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="Z210" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AA210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF210" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>77</v>
@@ -28597,7 +28587,7 @@
         <v>98</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>79</v>
@@ -28606,21 +28596,21 @@
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP210" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28643,16 +28633,16 @@
         <v>87</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L211" t="s" s="2">
+      <c r="N211" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="M211" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28702,7 +28692,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>77</v>
@@ -28737,10 +28727,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28766,10 +28756,10 @@
         <v>258</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -28820,7 +28810,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>77</v>
@@ -28835,7 +28825,7 @@
         <v>98</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>79</v>
@@ -28855,10 +28845,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28881,19 +28871,19 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="M213" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>640</v>
-      </c>
       <c r="O213" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -28942,7 +28932,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>77</v>
@@ -28954,19 +28944,19 @@
         <v>143</v>
       </c>
       <c r="AJ213" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AL213" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM213" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN213" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="AK213" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AL213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN213" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>79</v>
@@ -28977,10 +28967,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29095,10 +29085,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -29215,10 +29205,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29244,16 +29234,16 @@
         <v>106</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N216" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="O216" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
@@ -29266,7 +29256,7 @@
         <v>79</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>79</v>
@@ -29281,28 +29271,28 @@
         <v>292</v>
       </c>
       <c r="Y216" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF216" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="Z216" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AA216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF216" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>77</v>
@@ -29317,7 +29307,7 @@
         <v>98</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL216" t="s" s="2">
         <v>79</v>
@@ -29326,21 +29316,21 @@
         <v>79</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP216" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29366,13 +29356,13 @@
         <v>106</v>
       </c>
       <c r="L217" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N217" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -29386,7 +29376,7 @@
         <v>79</v>
       </c>
       <c r="T217" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="U217" t="s" s="2">
         <v>79</v>
@@ -29401,28 +29391,28 @@
         <v>292</v>
       </c>
       <c r="Y217" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF217" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="Z217" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AA217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF217" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>77</v>
@@ -29437,7 +29427,7 @@
         <v>98</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>79</v>
@@ -29446,7 +29436,7 @@
         <v>79</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29457,10 +29447,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29486,16 +29476,16 @@
         <v>146</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N218" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M218" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>670</v>
-      </c>
       <c r="O218" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29508,7 +29498,7 @@
         <v>79</v>
       </c>
       <c r="T218" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="U218" t="s" s="2">
         <v>79</v>
@@ -29544,7 +29534,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>77</v>
@@ -29559,7 +29549,7 @@
         <v>98</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AL218" t="s" s="2">
         <v>79</v>
@@ -29568,21 +29558,21 @@
         <v>79</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP218" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29608,10 +29598,10 @@
         <v>146</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -29626,7 +29616,7 @@
         <v>79</v>
       </c>
       <c r="T219" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="U219" t="s" s="2">
         <v>79</v>
@@ -29662,7 +29652,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>77</v>
@@ -29677,7 +29667,7 @@
         <v>98</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AL219" t="s" s="2">
         <v>79</v>
@@ -29686,21 +29676,21 @@
         <v>79</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP219" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29726,10 +29716,10 @@
         <v>146</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -29815,10 +29805,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29931,13 +29921,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D222" t="s" s="2">
         <v>79</v>
@@ -29959,13 +29949,13 @@
         <v>79</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M222" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -30031,7 +30021,7 @@
         <v>137</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>79</v>
@@ -30051,13 +30041,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>79</v>
@@ -30079,13 +30069,13 @@
         <v>79</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="M223" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -30151,7 +30141,7 @@
         <v>137</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>79</v>
@@ -30171,13 +30161,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>79</v>
@@ -30199,13 +30189,13 @@
         <v>79</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -30271,7 +30261,7 @@
         <v>137</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AL224" t="s" s="2">
         <v>79</v>
@@ -30291,13 +30281,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>79</v>
@@ -30319,13 +30309,13 @@
         <v>79</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="M225" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -30411,10 +30401,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30440,10 +30430,10 @@
         <v>146</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -30467,7 +30457,7 @@
         <v>79</v>
       </c>
       <c r="W226" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="X226" t="s" s="2">
         <v>79</v>
@@ -30494,7 +30484,7 @@
         <v>79</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>77</v>
@@ -30529,14 +30519,14 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" t="s" s="2">
@@ -30558,10 +30548,10 @@
         <v>146</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -30576,7 +30566,7 @@
         <v>79</v>
       </c>
       <c r="T227" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U227" t="s" s="2">
         <v>79</v>
@@ -30612,7 +30602,7 @@
         <v>79</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>77</v>
@@ -30627,7 +30617,7 @@
         <v>98</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>79</v>
@@ -30636,25 +30626,25 @@
         <v>79</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AO227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP227" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
@@ -30676,13 +30666,13 @@
         <v>146</v>
       </c>
       <c r="L228" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="N228" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -30696,7 +30686,7 @@
         <v>79</v>
       </c>
       <c r="T228" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="U228" t="s" s="2">
         <v>79</v>
@@ -30732,7 +30722,7 @@
         <v>79</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>77</v>
@@ -30747,7 +30737,7 @@
         <v>98</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>79</v>
@@ -30756,7 +30746,7 @@
         <v>79</v>
       </c>
       <c r="AN228" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AO228" t="s" s="2">
         <v>79</v>
@@ -30767,14 +30757,14 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
@@ -30796,10 +30786,10 @@
         <v>146</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -30850,7 +30840,7 @@
         <v>79</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>77</v>
@@ -30865,7 +30855,7 @@
         <v>98</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AL229" t="s" s="2">
         <v>79</v>
@@ -30874,25 +30864,25 @@
         <v>79</v>
       </c>
       <c r="AN229" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AO229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP229" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
@@ -30914,10 +30904,10 @@
         <v>146</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -30932,7 +30922,7 @@
         <v>79</v>
       </c>
       <c r="T230" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="U230" t="s" s="2">
         <v>79</v>
@@ -30968,7 +30958,7 @@
         <v>79</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>77</v>
@@ -30983,7 +30973,7 @@
         <v>98</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AL230" t="s" s="2">
         <v>79</v>
@@ -30992,21 +30982,21 @@
         <v>79</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AO230" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP230" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31032,13 +31022,13 @@
         <v>146</v>
       </c>
       <c r="L231" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="N231" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -31088,7 +31078,7 @@
         <v>79</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>77</v>
@@ -31103,7 +31093,7 @@
         <v>98</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>79</v>
@@ -31112,21 +31102,21 @@
         <v>79</v>
       </c>
       <c r="AN231" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AO231" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP231" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31152,14 +31142,14 @@
         <v>258</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>79</v>
@@ -31172,7 +31162,7 @@
         <v>79</v>
       </c>
       <c r="T232" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="U232" t="s" s="2">
         <v>79</v>
@@ -31208,7 +31198,7 @@
         <v>79</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>77</v>
@@ -31223,7 +31213,7 @@
         <v>98</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AL232" t="s" s="2">
         <v>79</v>
@@ -31232,7 +31222,7 @@
         <v>79</v>
       </c>
       <c r="AN232" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AO232" t="s" s="2">
         <v>79</v>
@@ -31243,10 +31233,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31272,14 +31262,14 @@
         <v>106</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>79</v>
@@ -31307,10 +31297,10 @@
         <v>292</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Z233" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AA233" t="s" s="2">
         <v>79</v>
@@ -31328,7 +31318,7 @@
         <v>79</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>77</v>
@@ -31343,7 +31333,7 @@
         <v>98</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AL233" t="s" s="2">
         <v>150</v>
@@ -31352,7 +31342,7 @@
         <v>79</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AO233" t="s" s="2">
         <v>79</v>
@@ -31363,10 +31353,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31392,14 +31382,14 @@
         <v>329</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>79</v>
@@ -31448,7 +31438,7 @@
         <v>79</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>77</v>
@@ -31457,13 +31447,13 @@
         <v>86</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AL234" t="s" s="2">
         <v>150</v>
@@ -31472,21 +31462,21 @@
         <v>79</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AO234" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP234" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31512,10 +31502,10 @@
         <v>258</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -31566,7 +31556,7 @@
         <v>79</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>77</v>
@@ -31581,7 +31571,7 @@
         <v>98</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AL235" t="s" s="2">
         <v>150</v>
@@ -31601,10 +31591,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31627,19 +31617,19 @@
         <v>79</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="L236" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="N236" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="O236" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>79</v>
@@ -31688,7 +31678,7 @@
         <v>79</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>77</v>
@@ -31703,10 +31693,10 @@
         <v>98</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>79</v>
@@ -31723,10 +31713,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31841,10 +31831,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31961,14 +31951,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
@@ -31990,10 +31980,10 @@
         <v>131</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N239" t="s" s="2">
         <v>156</v>
@@ -32048,7 +32038,7 @@
         <v>79</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>77</v>
@@ -32083,10 +32073,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32112,16 +32102,16 @@
         <v>173</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="N240" t="s" s="2">
         <v>930</v>
       </c>
-      <c r="M240" t="s" s="2">
+      <c r="O240" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>933</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>79</v>
@@ -32170,7 +32160,7 @@
         <v>79</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>86</v>
@@ -32185,30 +32175,30 @@
         <v>98</v>
       </c>
       <c r="AK240" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="AL240" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="AM240" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN240" t="s" s="2">
         <v>934</v>
       </c>
-      <c r="AL240" t="s" s="2">
+      <c r="AO240" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP240" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="AM240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN240" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="AO240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP240" t="s" s="2">
-        <v>937</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32234,16 +32224,16 @@
         <v>233</v>
       </c>
       <c r="L241" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="N241" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="M241" t="s" s="2">
+      <c r="O241" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>79</v>
@@ -32292,7 +32282,7 @@
         <v>79</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>77</v>
@@ -32307,34 +32297,34 @@
         <v>98</v>
       </c>
       <c r="AK241" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="AL241" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="AM241" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN241" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="AL241" t="s" s="2">
+      <c r="AO241" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP241" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="AM241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN241" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="AO241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP241" t="s" s="2">
-        <v>946</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
@@ -32353,16 +32343,16 @@
         <v>79</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="M242" t="s" s="2">
         <v>949</v>
       </c>
-      <c r="L242" t="s" s="2">
+      <c r="N242" t="s" s="2">
         <v>950</v>
-      </c>
-      <c r="M242" t="s" s="2">
-        <v>951</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>952</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
@@ -32412,7 +32402,7 @@
         <v>79</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>77</v>
@@ -32427,7 +32417,7 @@
         <v>98</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AL242" t="s" s="2">
         <v>150</v>
@@ -32436,21 +32426,21 @@
         <v>79</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="AO242" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP242" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -32476,16 +32466,16 @@
         <v>329</v>
       </c>
       <c r="L243" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="N243" t="s" s="2">
         <v>957</v>
       </c>
-      <c r="M243" t="s" s="2">
+      <c r="O243" t="s" s="2">
         <v>958</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="O243" t="s" s="2">
-        <v>960</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>79</v>
@@ -32534,7 +32524,7 @@
         <v>79</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>77</v>
@@ -32549,10 +32539,10 @@
         <v>98</v>
       </c>
       <c r="AK243" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>79</v>
@@ -32564,15 +32554,15 @@
         <v>79</v>
       </c>
       <c r="AP243" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -32595,19 +32585,19 @@
         <v>87</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="L244" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N244" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="O244" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>966</v>
-      </c>
-      <c r="O244" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="P244" t="s" s="2">
         <v>79</v>
@@ -32656,7 +32646,7 @@
         <v>79</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>77</v>
@@ -32671,7 +32661,7 @@
         <v>98</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AL244" t="s" s="2">
         <v>150</v>
@@ -32691,10 +32681,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32809,10 +32799,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32929,14 +32919,14 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -32958,10 +32948,10 @@
         <v>131</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>156</v>
@@ -33016,7 +33006,7 @@
         <v>79</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>77</v>
@@ -33051,10 +33041,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33077,16 +33067,16 @@
         <v>87</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="M248" t="s" s="2">
         <v>973</v>
       </c>
-      <c r="L248" t="s" s="2">
+      <c r="N248" t="s" s="2">
         <v>974</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>976</v>
       </c>
       <c r="O248" s="2"/>
       <c r="P248" t="s" s="2">
@@ -33136,7 +33126,7 @@
         <v>79</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>86</v>
@@ -33160,7 +33150,7 @@
         <v>79</v>
       </c>
       <c r="AN248" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AO248" t="s" s="2">
         <v>79</v>
@@ -33171,10 +33161,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33200,10 +33190,10 @@
         <v>106</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -33233,10 +33223,10 @@
         <v>292</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="Z249" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AA249" t="s" s="2">
         <v>79</v>
@@ -33254,7 +33244,7 @@
         <v>79</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>86</v>
@@ -33269,7 +33259,7 @@
         <v>98</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AL249" t="s" s="2">
         <v>150</v>

--- a/r4-core-57-Patient-Identifier-TypeCodes/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-57-Patient-Identifier-TypeCodes/StructureDefinition-at-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9504" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9507" uniqueCount="982">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:10:16+00:00</t>
+    <t>2023-02-23T15:20:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1071,7 +1071,10 @@
     <t>Patient.identifier:socialSecurityNumber.type</t>
   </si>
   <si>
-    <t>https://termgit.elga.gv.at/ValueSet/elga-patientidentifier</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Patient.identifier:socialSecurityNumber.type.id</t>
@@ -3362,7 +3365,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="70.3359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
@@ -9436,9 +9439,11 @@
       <c r="X51" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y51" s="2"/>
+      <c r="Y51" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -9491,10 +9496,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9609,10 +9614,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9729,10 +9734,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9851,10 +9856,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9969,10 +9974,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -10089,10 +10094,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -10118,7 +10123,7 @@
         <v>100</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>200</v>
@@ -10134,7 +10139,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>79</v>
@@ -10211,10 +10216,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10331,10 +10336,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10374,7 +10379,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>79</v>
@@ -10451,10 +10456,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10494,7 +10499,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>79</v>
@@ -10571,10 +10576,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10693,10 +10698,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10815,7 +10820,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>305</v>
@@ -10844,7 +10849,7 @@
         <v>100</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>307</v>
@@ -10860,7 +10865,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>79</v>
@@ -10932,12 +10937,12 @@
         <v>79</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>314</v>
@@ -11052,12 +11057,12 @@
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>322</v>
@@ -11175,7 +11180,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>328</v>
@@ -11295,10 +11300,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11413,10 +11418,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11533,10 +11538,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11562,13 +11567,13 @@
         <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11618,7 +11623,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -11627,7 +11632,7 @@
         <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>98</v>
@@ -11653,10 +11658,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11682,13 +11687,13 @@
         <v>100</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11717,10 +11722,10 @@
         <v>176</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -11738,7 +11743,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -11773,10 +11778,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11802,13 +11807,13 @@
         <v>276</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11858,7 +11863,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -11873,7 +11878,7 @@
         <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -11893,10 +11898,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11922,13 +11927,13 @@
         <v>146</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11936,7 +11941,7 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>79</v>
@@ -11978,7 +11983,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -12013,13 +12018,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>275</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>79</v>
@@ -12135,7 +12140,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>285</v>
@@ -12253,7 +12258,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>286</v>
@@ -12373,7 +12378,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>287</v>
@@ -12495,7 +12500,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>297</v>
@@ -12560,9 +12565,11 @@
       <c r="X77" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y77" s="2"/>
+      <c r="Y77" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Z77" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -12615,10 +12622,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12733,10 +12740,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12853,10 +12860,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12975,10 +12982,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -13093,10 +13100,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13213,10 +13220,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13242,7 +13249,7 @@
         <v>100</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>200</v>
@@ -13258,7 +13265,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -13335,10 +13342,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13455,10 +13462,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13498,7 +13505,7 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>79</v>
@@ -13575,10 +13582,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13618,7 +13625,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>79</v>
@@ -13695,10 +13702,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13817,10 +13824,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13939,7 +13946,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>305</v>
@@ -13968,7 +13975,7 @@
         <v>100</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>307</v>
@@ -13984,7 +13991,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>79</v>
@@ -14056,12 +14063,12 @@
         <v>79</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>314</v>
@@ -14176,12 +14183,12 @@
         <v>79</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>322</v>
@@ -14299,7 +14306,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>328</v>
@@ -14419,10 +14426,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14537,10 +14544,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14657,10 +14664,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14686,13 +14693,13 @@
         <v>146</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14742,7 +14749,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -14751,7 +14758,7 @@
         <v>86</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>98</v>
@@ -14777,10 +14784,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14806,13 +14813,13 @@
         <v>100</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14841,10 +14848,10 @@
         <v>176</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>79</v>
@@ -14862,7 +14869,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -14897,10 +14904,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14926,13 +14933,13 @@
         <v>276</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14982,7 +14989,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -14997,7 +15004,7 @@
         <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>79</v>
@@ -15017,10 +15024,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -15046,13 +15053,13 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -15060,7 +15067,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>79</v>
@@ -15102,7 +15109,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -15137,13 +15144,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>275</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>79</v>
@@ -15259,7 +15266,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>285</v>
@@ -15377,7 +15384,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>286</v>
@@ -15497,7 +15504,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>287</v>
@@ -15619,7 +15626,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>297</v>
@@ -15684,9 +15691,11 @@
       <c r="X103" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y103" s="2"/>
+      <c r="Y103" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Z103" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
@@ -15739,10 +15748,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15857,10 +15866,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15977,10 +15986,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -16099,10 +16108,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -16217,10 +16226,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16337,10 +16346,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16366,7 +16375,7 @@
         <v>100</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>200</v>
@@ -16382,7 +16391,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>79</v>
@@ -16459,10 +16468,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16579,10 +16588,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16622,7 +16631,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>79</v>
@@ -16699,10 +16708,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16742,7 +16751,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>79</v>
@@ -16819,10 +16828,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16941,10 +16950,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -17063,7 +17072,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>305</v>
@@ -17092,7 +17101,7 @@
         <v>100</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>307</v>
@@ -17180,12 +17189,12 @@
         <v>79</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>314</v>
@@ -17300,12 +17309,12 @@
         <v>79</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>322</v>
@@ -17423,7 +17432,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>328</v>
@@ -17543,10 +17552,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17572,67 +17581,67 @@
         <v>233</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q119" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF119" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q119" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -17647,13 +17656,13 @@
         <v>98</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -17667,10 +17676,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17693,19 +17702,19 @@
         <v>87</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>79</v>
@@ -17754,7 +17763,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -17769,30 +17778,30 @@
         <v>98</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN120" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17907,10 +17916,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -18027,10 +18036,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18056,16 +18065,16 @@
         <v>106</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -18093,10 +18102,10 @@
         <v>292</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>79</v>
@@ -18114,7 +18123,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -18129,7 +18138,7 @@
         <v>98</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>79</v>
@@ -18138,7 +18147,7 @@
         <v>79</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>79</v>
@@ -18149,10 +18158,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18178,16 +18187,16 @@
         <v>146</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -18236,7 +18245,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -18251,7 +18260,7 @@
         <v>98</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>79</v>
@@ -18260,7 +18269,7 @@
         <v>79</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>79</v>
@@ -18271,14 +18280,14 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -18300,13 +18309,13 @@
         <v>146</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -18356,7 +18365,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -18371,7 +18380,7 @@
         <v>98</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>79</v>
@@ -18380,25 +18389,25 @@
         <v>79</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -18420,13 +18429,13 @@
         <v>146</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -18476,7 +18485,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
@@ -18491,7 +18500,7 @@
         <v>98</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>79</v>
@@ -18500,21 +18509,21 @@
         <v>79</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP126" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18540,10 +18549,10 @@
         <v>146</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -18594,7 +18603,7 @@
         <v>79</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
@@ -18609,7 +18618,7 @@
         <v>98</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>79</v>
@@ -18618,21 +18627,21 @@
         <v>79</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18658,10 +18667,10 @@
         <v>146</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -18712,7 +18721,7 @@
         <v>79</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -18727,7 +18736,7 @@
         <v>98</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>79</v>
@@ -18736,21 +18745,21 @@
         <v>79</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18776,14 +18785,14 @@
         <v>258</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>79</v>
@@ -18832,7 +18841,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -18847,7 +18856,7 @@
         <v>98</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>79</v>
@@ -18856,7 +18865,7 @@
         <v>79</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>79</v>
@@ -18867,10 +18876,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18893,19 +18902,19 @@
         <v>87</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -18954,7 +18963,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -18969,16 +18978,16 @@
         <v>98</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>79</v>
@@ -18989,10 +18998,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -19107,10 +19116,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19227,10 +19236,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19256,10 +19265,10 @@
         <v>106</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -19289,10 +19298,10 @@
         <v>292</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Z133" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>79</v>
@@ -19310,7 +19319,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
@@ -19319,13 +19328,13 @@
         <v>86</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>79</v>
@@ -19334,21 +19343,21 @@
         <v>79</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19374,16 +19383,16 @@
         <v>146</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -19432,7 +19441,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -19447,7 +19456,7 @@
         <v>98</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>79</v>
@@ -19456,21 +19465,21 @@
         <v>79</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19496,16 +19505,16 @@
         <v>106</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -19533,10 +19542,10 @@
         <v>292</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>79</v>
@@ -19554,7 +19563,7 @@
         <v>79</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -19569,7 +19578,7 @@
         <v>98</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>79</v>
@@ -19578,21 +19587,21 @@
         <v>79</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19615,16 +19624,16 @@
         <v>87</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -19674,7 +19683,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>77</v>
@@ -19709,10 +19718,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19738,10 +19747,10 @@
         <v>258</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -19792,7 +19801,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>77</v>
@@ -19807,7 +19816,7 @@
         <v>98</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>79</v>
@@ -19827,10 +19836,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19856,16 +19865,16 @@
         <v>106</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -19893,10 +19902,10 @@
         <v>292</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>79</v>
@@ -19914,7 +19923,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -19929,30 +19938,30 @@
         <v>98</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP138" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19975,19 +19984,19 @@
         <v>87</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>79</v>
@@ -20036,7 +20045,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>77</v>
@@ -20051,30 +20060,30 @@
         <v>98</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20097,19 +20106,19 @@
         <v>87</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>79</v>
@@ -20146,17 +20155,17 @@
         <v>79</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AC140" s="2"/>
       <c r="AD140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>77</v>
@@ -20171,7 +20180,7 @@
         <v>98</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>150</v>
@@ -20180,7 +20189,7 @@
         <v>79</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>79</v>
@@ -20191,13 +20200,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>79</v>
@@ -20222,16 +20231,16 @@
         <v>233</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>79</v>
@@ -20280,7 +20289,7 @@
         <v>79</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
@@ -20295,7 +20304,7 @@
         <v>98</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>150</v>
@@ -20304,24 +20313,24 @@
         <v>79</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D142" t="s" s="2">
         <v>79</v>
@@ -20343,19 +20352,19 @@
         <v>87</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>79</v>
@@ -20404,7 +20413,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
@@ -20419,7 +20428,7 @@
         <v>98</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>150</v>
@@ -20428,21 +20437,21 @@
         <v>79</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20465,19 +20474,19 @@
         <v>79</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -20526,7 +20535,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>77</v>
@@ -20538,10 +20547,10 @@
         <v>143</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>79</v>
@@ -20550,7 +20559,7 @@
         <v>79</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>79</v>
@@ -20561,10 +20570,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20679,10 +20688,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20799,10 +20808,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20828,16 +20837,16 @@
         <v>106</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>79</v>
@@ -20850,7 +20859,7 @@
         <v>79</v>
       </c>
       <c r="T146" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="U146" t="s" s="2">
         <v>79</v>
@@ -20865,10 +20874,10 @@
         <v>292</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>79</v>
@@ -20886,7 +20895,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>77</v>
@@ -20901,7 +20910,7 @@
         <v>98</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>79</v>
@@ -20910,21 +20919,21 @@
         <v>79</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP146" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20950,13 +20959,13 @@
         <v>106</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20970,7 +20979,7 @@
         <v>79</v>
       </c>
       <c r="T147" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="U147" t="s" s="2">
         <v>79</v>
@@ -20985,10 +20994,10 @@
         <v>292</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>79</v>
@@ -21006,7 +21015,7 @@
         <v>79</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>77</v>
@@ -21021,7 +21030,7 @@
         <v>98</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>79</v>
@@ -21030,7 +21039,7 @@
         <v>79</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>79</v>
@@ -21041,10 +21050,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -21070,16 +21079,16 @@
         <v>146</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -21092,7 +21101,7 @@
         <v>79</v>
       </c>
       <c r="T148" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="U148" t="s" s="2">
         <v>79</v>
@@ -21128,7 +21137,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -21143,7 +21152,7 @@
         <v>98</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>79</v>
@@ -21152,21 +21161,21 @@
         <v>79</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP148" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21192,10 +21201,10 @@
         <v>146</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -21210,7 +21219,7 @@
         <v>79</v>
       </c>
       <c r="T149" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="U149" t="s" s="2">
         <v>79</v>
@@ -21246,7 +21255,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>77</v>
@@ -21261,7 +21270,7 @@
         <v>98</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>79</v>
@@ -21270,21 +21279,21 @@
         <v>79</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP149" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21310,10 +21319,10 @@
         <v>146</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21399,10 +21408,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21515,13 +21524,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="B152" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="C152" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>79</v>
@@ -21543,13 +21552,13 @@
         <v>79</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -21615,7 +21624,7 @@
         <v>137</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>79</v>
@@ -21635,13 +21644,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -21663,13 +21672,13 @@
         <v>79</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21735,7 +21744,7 @@
         <v>137</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>79</v>
@@ -21755,13 +21764,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>79</v>
@@ -21783,13 +21792,13 @@
         <v>79</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21855,7 +21864,7 @@
         <v>137</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>79</v>
@@ -21875,13 +21884,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>79</v>
@@ -21903,13 +21912,13 @@
         <v>79</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -21995,10 +22004,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -22024,10 +22033,10 @@
         <v>146</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -22051,7 +22060,7 @@
         <v>79</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="X156" t="s" s="2">
         <v>79</v>
@@ -22078,7 +22087,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>77</v>
@@ -22113,14 +22122,14 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -22142,10 +22151,10 @@
         <v>146</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -22160,7 +22169,7 @@
         <v>79</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>79</v>
@@ -22196,7 +22205,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>77</v>
@@ -22211,7 +22220,7 @@
         <v>98</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AL157" t="s" s="2">
         <v>79</v>
@@ -22220,25 +22229,25 @@
         <v>79</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP157" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -22260,13 +22269,13 @@
         <v>146</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -22280,7 +22289,7 @@
         <v>79</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>79</v>
@@ -22316,7 +22325,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>77</v>
@@ -22331,7 +22340,7 @@
         <v>98</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>79</v>
@@ -22340,7 +22349,7 @@
         <v>79</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>79</v>
@@ -22351,14 +22360,14 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22380,10 +22389,10 @@
         <v>146</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -22434,7 +22443,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>77</v>
@@ -22449,7 +22458,7 @@
         <v>98</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>79</v>
@@ -22458,25 +22467,25 @@
         <v>79</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP159" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -22498,10 +22507,10 @@
         <v>146</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22516,7 +22525,7 @@
         <v>79</v>
       </c>
       <c r="T160" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="U160" t="s" s="2">
         <v>79</v>
@@ -22552,7 +22561,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>77</v>
@@ -22567,7 +22576,7 @@
         <v>98</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>79</v>
@@ -22576,21 +22585,21 @@
         <v>79</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP160" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22616,13 +22625,13 @@
         <v>146</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -22672,7 +22681,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>77</v>
@@ -22687,7 +22696,7 @@
         <v>98</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>79</v>
@@ -22696,21 +22705,21 @@
         <v>79</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP161" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22736,14 +22745,14 @@
         <v>258</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -22756,7 +22765,7 @@
         <v>79</v>
       </c>
       <c r="T162" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="U162" t="s" s="2">
         <v>79</v>
@@ -22792,7 +22801,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -22807,7 +22816,7 @@
         <v>98</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>79</v>
@@ -22816,7 +22825,7 @@
         <v>79</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>79</v>
@@ -22827,10 +22836,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22856,14 +22865,14 @@
         <v>173</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -22891,10 +22900,10 @@
         <v>176</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>79</v>
@@ -22912,7 +22921,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>77</v>
@@ -22927,16 +22936,16 @@
         <v>98</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>79</v>
@@ -22947,10 +22956,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -23065,10 +23074,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23185,10 +23194,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23307,10 +23316,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23425,10 +23434,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23545,10 +23554,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23574,7 +23583,7 @@
         <v>100</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M169" t="s" s="2">
         <v>200</v>
@@ -23662,15 +23671,15 @@
         <v>79</v>
       </c>
       <c r="AP169" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23787,10 +23796,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23902,15 +23911,15 @@
         <v>79</v>
       </c>
       <c r="AP171" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -24022,15 +24031,15 @@
         <v>79</v>
       </c>
       <c r="AP172" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24149,10 +24158,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24271,10 +24280,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24297,19 +24306,19 @@
         <v>79</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>79</v>
@@ -24346,17 +24355,17 @@
         <v>79</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AC175" s="2"/>
       <c r="AD175" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>77</v>
@@ -24371,7 +24380,7 @@
         <v>98</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>150</v>
@@ -24380,7 +24389,7 @@
         <v>79</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>79</v>
@@ -24391,13 +24400,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>79</v>
@@ -24422,16 +24431,16 @@
         <v>233</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>79</v>
@@ -24480,7 +24489,7 @@
         <v>79</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>77</v>
@@ -24495,7 +24504,7 @@
         <v>98</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>150</v>
@@ -24504,7 +24513,7 @@
         <v>79</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>79</v>
@@ -24515,13 +24524,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>79</v>
@@ -24543,19 +24552,19 @@
         <v>79</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>79</v>
@@ -24604,7 +24613,7 @@
         <v>79</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>
@@ -24619,7 +24628,7 @@
         <v>98</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>150</v>
@@ -24628,7 +24637,7 @@
         <v>79</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>79</v>
@@ -24639,10 +24648,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24665,19 +24674,19 @@
         <v>79</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>79</v>
@@ -24726,7 +24735,7 @@
         <v>79</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>77</v>
@@ -24741,7 +24750,7 @@
         <v>98</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>150</v>
@@ -24750,7 +24759,7 @@
         <v>79</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>79</v>
@@ -24761,10 +24770,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24787,19 +24796,19 @@
         <v>79</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>79</v>
@@ -24848,7 +24857,7 @@
         <v>79</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>77</v>
@@ -24860,10 +24869,10 @@
         <v>79</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>150</v>
@@ -24883,10 +24892,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -25001,10 +25010,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25121,14 +25130,14 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -25150,10 +25159,10 @@
         <v>131</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>156</v>
@@ -25208,7 +25217,7 @@
         <v>79</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>77</v>
@@ -25243,10 +25252,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25272,14 +25281,14 @@
         <v>173</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>79</v>
@@ -25307,10 +25316,10 @@
         <v>176</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>79</v>
@@ -25328,7 +25337,7 @@
         <v>79</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>77</v>
@@ -25352,7 +25361,7 @@
         <v>79</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>79</v>
@@ -25363,10 +25372,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25481,10 +25490,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25601,10 +25610,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25723,10 +25732,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25841,10 +25850,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25961,10 +25970,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25990,7 +25999,7 @@
         <v>100</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>200</v>
@@ -26078,15 +26087,15 @@
         <v>79</v>
       </c>
       <c r="AP189" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26203,10 +26212,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26318,15 +26327,15 @@
         <v>79</v>
       </c>
       <c r="AP191" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26438,15 +26447,15 @@
         <v>79</v>
       </c>
       <c r="AP192" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26565,10 +26574,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26687,10 +26696,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26713,17 +26722,17 @@
         <v>79</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>79</v>
@@ -26772,7 +26781,7 @@
         <v>79</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>77</v>
@@ -26787,7 +26796,7 @@
         <v>98</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>150</v>
@@ -26796,7 +26805,7 @@
         <v>79</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>79</v>
@@ -26807,10 +26816,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26925,10 +26934,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -27045,10 +27054,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27074,16 +27083,16 @@
         <v>106</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>79</v>
@@ -27111,10 +27120,10 @@
         <v>292</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>79</v>
@@ -27132,7 +27141,7 @@
         <v>79</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>77</v>
@@ -27147,7 +27156,7 @@
         <v>98</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL198" t="s" s="2">
         <v>79</v>
@@ -27156,7 +27165,7 @@
         <v>79</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>79</v>
@@ -27167,10 +27176,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27196,16 +27205,16 @@
         <v>146</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>79</v>
@@ -27254,7 +27263,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>77</v>
@@ -27269,7 +27278,7 @@
         <v>98</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>79</v>
@@ -27278,7 +27287,7 @@
         <v>79</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>79</v>
@@ -27289,14 +27298,14 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -27318,13 +27327,13 @@
         <v>146</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
@@ -27374,7 +27383,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>77</v>
@@ -27389,7 +27398,7 @@
         <v>98</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>79</v>
@@ -27398,25 +27407,25 @@
         <v>79</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP200" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
@@ -27438,13 +27447,13 @@
         <v>146</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -27494,7 +27503,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>77</v>
@@ -27509,7 +27518,7 @@
         <v>98</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>79</v>
@@ -27518,21 +27527,21 @@
         <v>79</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP201" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27558,10 +27567,10 @@
         <v>146</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27612,7 +27621,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>77</v>
@@ -27627,7 +27636,7 @@
         <v>98</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>79</v>
@@ -27636,7 +27645,7 @@
         <v>79</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>79</v>
@@ -27647,10 +27656,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27676,10 +27685,10 @@
         <v>146</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27730,7 +27739,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>77</v>
@@ -27745,7 +27754,7 @@
         <v>98</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>79</v>
@@ -27754,7 +27763,7 @@
         <v>79</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>79</v>
@@ -27765,10 +27774,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27794,14 +27803,14 @@
         <v>258</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -27850,7 +27859,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>77</v>
@@ -27865,7 +27874,7 @@
         <v>98</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL204" t="s" s="2">
         <v>79</v>
@@ -27874,7 +27883,7 @@
         <v>79</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>79</v>
@@ -27885,10 +27894,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27911,19 +27920,19 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27972,7 +27981,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>77</v>
@@ -27987,7 +27996,7 @@
         <v>98</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL205" t="s" s="2">
         <v>150</v>
@@ -27996,7 +28005,7 @@
         <v>79</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>79</v>
@@ -28007,10 +28016,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28125,10 +28134,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28245,10 +28254,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28274,10 +28283,10 @@
         <v>106</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -28307,10 +28316,10 @@
         <v>292</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AA208" t="s" s="2">
         <v>79</v>
@@ -28328,7 +28337,7 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>77</v>
@@ -28337,13 +28346,13 @@
         <v>86</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>79</v>
@@ -28352,21 +28361,21 @@
         <v>79</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP208" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28392,16 +28401,16 @@
         <v>146</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>79</v>
@@ -28450,7 +28459,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>77</v>
@@ -28465,7 +28474,7 @@
         <v>98</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>79</v>
@@ -28474,21 +28483,21 @@
         <v>79</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP209" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28514,16 +28523,16 @@
         <v>106</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>79</v>
@@ -28551,10 +28560,10 @@
         <v>292</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>79</v>
@@ -28572,7 +28581,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>77</v>
@@ -28587,7 +28596,7 @@
         <v>98</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>79</v>
@@ -28596,21 +28605,21 @@
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP210" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28633,16 +28642,16 @@
         <v>87</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28692,7 +28701,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>77</v>
@@ -28727,10 +28736,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28756,10 +28765,10 @@
         <v>258</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -28810,7 +28819,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>77</v>
@@ -28825,7 +28834,7 @@
         <v>98</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>79</v>
@@ -28845,10 +28854,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28871,19 +28880,19 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -28932,7 +28941,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>77</v>
@@ -28944,10 +28953,10 @@
         <v>143</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL213" t="s" s="2">
         <v>79</v>
@@ -28956,7 +28965,7 @@
         <v>79</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>79</v>
@@ -28967,10 +28976,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29085,10 +29094,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -29205,10 +29214,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29234,16 +29243,16 @@
         <v>106</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
@@ -29256,7 +29265,7 @@
         <v>79</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>79</v>
@@ -29271,10 +29280,10 @@
         <v>292</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>79</v>
@@ -29292,7 +29301,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>77</v>
@@ -29307,7 +29316,7 @@
         <v>98</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL216" t="s" s="2">
         <v>79</v>
@@ -29316,21 +29325,21 @@
         <v>79</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP216" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29356,13 +29365,13 @@
         <v>106</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -29376,7 +29385,7 @@
         <v>79</v>
       </c>
       <c r="T217" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="U217" t="s" s="2">
         <v>79</v>
@@ -29391,10 +29400,10 @@
         <v>292</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z217" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AA217" t="s" s="2">
         <v>79</v>
@@ -29412,7 +29421,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>77</v>
@@ -29427,7 +29436,7 @@
         <v>98</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>79</v>
@@ -29436,7 +29445,7 @@
         <v>79</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29447,10 +29456,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29476,16 +29485,16 @@
         <v>146</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29498,7 +29507,7 @@
         <v>79</v>
       </c>
       <c r="T218" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="U218" t="s" s="2">
         <v>79</v>
@@ -29534,7 +29543,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>77</v>
@@ -29549,7 +29558,7 @@
         <v>98</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL218" t="s" s="2">
         <v>79</v>
@@ -29558,21 +29567,21 @@
         <v>79</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP218" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29598,10 +29607,10 @@
         <v>146</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -29616,7 +29625,7 @@
         <v>79</v>
       </c>
       <c r="T219" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="U219" t="s" s="2">
         <v>79</v>
@@ -29652,7 +29661,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>77</v>
@@ -29667,7 +29676,7 @@
         <v>98</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AL219" t="s" s="2">
         <v>79</v>
@@ -29676,21 +29685,21 @@
         <v>79</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP219" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29716,10 +29725,10 @@
         <v>146</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -29805,10 +29814,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29921,13 +29930,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="B222" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="B222" t="s" s="2">
-        <v>885</v>
-      </c>
       <c r="C222" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D222" t="s" s="2">
         <v>79</v>
@@ -29949,13 +29958,13 @@
         <v>79</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -30021,7 +30030,7 @@
         <v>137</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>79</v>
@@ -30041,13 +30050,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>79</v>
@@ -30069,13 +30078,13 @@
         <v>79</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -30141,7 +30150,7 @@
         <v>137</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>79</v>
@@ -30161,13 +30170,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>79</v>
@@ -30189,13 +30198,13 @@
         <v>79</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -30261,7 +30270,7 @@
         <v>137</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AL224" t="s" s="2">
         <v>79</v>
@@ -30281,13 +30290,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>79</v>
@@ -30309,13 +30318,13 @@
         <v>79</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -30401,10 +30410,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30430,10 +30439,10 @@
         <v>146</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -30457,7 +30466,7 @@
         <v>79</v>
       </c>
       <c r="W226" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="X226" t="s" s="2">
         <v>79</v>
@@ -30484,7 +30493,7 @@
         <v>79</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>77</v>
@@ -30519,14 +30528,14 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" t="s" s="2">
@@ -30548,10 +30557,10 @@
         <v>146</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -30566,7 +30575,7 @@
         <v>79</v>
       </c>
       <c r="T227" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="U227" t="s" s="2">
         <v>79</v>
@@ -30602,7 +30611,7 @@
         <v>79</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>77</v>
@@ -30617,7 +30626,7 @@
         <v>98</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>79</v>
@@ -30626,25 +30635,25 @@
         <v>79</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AO227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP227" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
@@ -30666,13 +30675,13 @@
         <v>146</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -30686,7 +30695,7 @@
         <v>79</v>
       </c>
       <c r="T228" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="U228" t="s" s="2">
         <v>79</v>
@@ -30722,7 +30731,7 @@
         <v>79</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>77</v>
@@ -30737,7 +30746,7 @@
         <v>98</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>79</v>
@@ -30746,7 +30755,7 @@
         <v>79</v>
       </c>
       <c r="AN228" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AO228" t="s" s="2">
         <v>79</v>
@@ -30757,14 +30766,14 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
@@ -30786,10 +30795,10 @@
         <v>146</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -30840,7 +30849,7 @@
         <v>79</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>77</v>
@@ -30855,7 +30864,7 @@
         <v>98</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AL229" t="s" s="2">
         <v>79</v>
@@ -30864,25 +30873,25 @@
         <v>79</v>
       </c>
       <c r="AN229" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AO229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP229" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
@@ -30904,10 +30913,10 @@
         <v>146</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -30922,7 +30931,7 @@
         <v>79</v>
       </c>
       <c r="T230" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="U230" t="s" s="2">
         <v>79</v>
@@ -30958,7 +30967,7 @@
         <v>79</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>77</v>
@@ -30973,7 +30982,7 @@
         <v>98</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AL230" t="s" s="2">
         <v>79</v>
@@ -30982,21 +30991,21 @@
         <v>79</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AO230" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP230" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31022,13 +31031,13 @@
         <v>146</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -31078,7 +31087,7 @@
         <v>79</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>77</v>
@@ -31093,7 +31102,7 @@
         <v>98</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>79</v>
@@ -31102,21 +31111,21 @@
         <v>79</v>
       </c>
       <c r="AN231" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AO231" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP231" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31142,14 +31151,14 @@
         <v>258</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>79</v>
@@ -31162,7 +31171,7 @@
         <v>79</v>
       </c>
       <c r="T232" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="U232" t="s" s="2">
         <v>79</v>
@@ -31198,7 +31207,7 @@
         <v>79</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>77</v>
@@ -31213,7 +31222,7 @@
         <v>98</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL232" t="s" s="2">
         <v>79</v>
@@ -31222,7 +31231,7 @@
         <v>79</v>
       </c>
       <c r="AN232" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AO232" t="s" s="2">
         <v>79</v>
@@ -31233,10 +31242,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31262,14 +31271,14 @@
         <v>106</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>79</v>
@@ -31297,10 +31306,10 @@
         <v>292</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z233" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA233" t="s" s="2">
         <v>79</v>
@@ -31318,7 +31327,7 @@
         <v>79</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>77</v>
@@ -31333,7 +31342,7 @@
         <v>98</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL233" t="s" s="2">
         <v>150</v>
@@ -31342,7 +31351,7 @@
         <v>79</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AO233" t="s" s="2">
         <v>79</v>
@@ -31353,10 +31362,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31382,14 +31391,14 @@
         <v>329</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>79</v>
@@ -31438,7 +31447,7 @@
         <v>79</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>77</v>
@@ -31447,13 +31456,13 @@
         <v>86</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AL234" t="s" s="2">
         <v>150</v>
@@ -31462,21 +31471,21 @@
         <v>79</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AO234" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP234" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31502,10 +31511,10 @@
         <v>258</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -31556,7 +31565,7 @@
         <v>79</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>77</v>
@@ -31571,7 +31580,7 @@
         <v>98</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AL235" t="s" s="2">
         <v>150</v>
@@ -31591,10 +31600,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31617,19 +31626,19 @@
         <v>79</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>79</v>
@@ -31678,7 +31687,7 @@
         <v>79</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>77</v>
@@ -31693,10 +31702,10 @@
         <v>98</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>79</v>
@@ -31713,10 +31722,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31831,10 +31840,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31951,14 +31960,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
@@ -31980,10 +31989,10 @@
         <v>131</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N239" t="s" s="2">
         <v>156</v>
@@ -32038,7 +32047,7 @@
         <v>79</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>77</v>
@@ -32073,10 +32082,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32102,16 +32111,16 @@
         <v>173</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>79</v>
@@ -32160,7 +32169,7 @@
         <v>79</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>86</v>
@@ -32175,30 +32184,30 @@
         <v>98</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="AM240" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN240" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AO240" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP240" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32224,16 +32233,16 @@
         <v>233</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>79</v>
@@ -32282,7 +32291,7 @@
         <v>79</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>77</v>
@@ -32297,34 +32306,34 @@
         <v>98</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AM241" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN241" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AO241" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP241" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
@@ -32343,16 +32352,16 @@
         <v>79</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
@@ -32402,7 +32411,7 @@
         <v>79</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>77</v>
@@ -32417,7 +32426,7 @@
         <v>98</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AL242" t="s" s="2">
         <v>150</v>
@@ -32426,21 +32435,21 @@
         <v>79</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AO242" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP242" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -32466,16 +32475,16 @@
         <v>329</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>79</v>
@@ -32524,7 +32533,7 @@
         <v>79</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>77</v>
@@ -32539,10 +32548,10 @@
         <v>98</v>
       </c>
       <c r="AK243" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>79</v>
@@ -32554,15 +32563,15 @@
         <v>79</v>
       </c>
       <c r="AP243" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -32585,19 +32594,19 @@
         <v>87</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="P244" t="s" s="2">
         <v>79</v>
@@ -32646,7 +32655,7 @@
         <v>79</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>77</v>
@@ -32661,7 +32670,7 @@
         <v>98</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AL244" t="s" s="2">
         <v>150</v>
@@ -32681,10 +32690,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32799,10 +32808,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32919,14 +32928,14 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -32948,10 +32957,10 @@
         <v>131</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>156</v>
@@ -33006,7 +33015,7 @@
         <v>79</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>77</v>
@@ -33041,10 +33050,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33067,16 +33076,16 @@
         <v>87</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O248" s="2"/>
       <c r="P248" t="s" s="2">
@@ -33126,7 +33135,7 @@
         <v>79</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>86</v>
@@ -33150,7 +33159,7 @@
         <v>79</v>
       </c>
       <c r="AN248" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AO248" t="s" s="2">
         <v>79</v>
@@ -33161,10 +33170,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33190,10 +33199,10 @@
         <v>106</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -33223,10 +33232,10 @@
         <v>292</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Z249" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AA249" t="s" s="2">
         <v>79</v>
@@ -33244,7 +33253,7 @@
         <v>79</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>86</v>
@@ -33259,7 +33268,7 @@
         <v>98</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AL249" t="s" s="2">
         <v>150</v>

--- a/r4-core-57-Patient-Identifier-TypeCodes/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-57-Patient-Identifier-TypeCodes/StructureDefinition-at-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9507" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9504" uniqueCount="980">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:20:14+00:00</t>
+    <t>2023-03-06T15:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1069,12 +1069,6 @@
   </si>
   <si>
     <t>Patient.identifier:socialSecurityNumber.type</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Patient.identifier:socialSecurityNumber.type.id</t>
@@ -3365,7 +3359,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="70.3359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
@@ -9437,13 +9431,11 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -9496,10 +9488,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9614,10 +9606,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9734,10 +9726,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9856,10 +9848,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9974,10 +9966,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -10094,10 +10086,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -10123,7 +10115,7 @@
         <v>100</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>200</v>
@@ -10139,7 +10131,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>79</v>
@@ -10216,10 +10208,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10336,10 +10328,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10379,7 +10371,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>79</v>
@@ -10456,10 +10448,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10499,7 +10491,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>79</v>
@@ -10576,10 +10568,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10698,10 +10690,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10820,7 +10812,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>305</v>
@@ -10849,7 +10841,7 @@
         <v>100</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>307</v>
@@ -10865,7 +10857,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>79</v>
@@ -10937,12 +10929,12 @@
         <v>79</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>314</v>
@@ -11057,12 +11049,12 @@
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>322</v>
@@ -11180,7 +11172,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>328</v>
@@ -11300,10 +11292,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11418,10 +11410,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11538,10 +11530,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11567,13 +11559,13 @@
         <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11623,7 +11615,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -11632,7 +11624,7 @@
         <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>98</v>
@@ -11658,10 +11650,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11687,13 +11679,13 @@
         <v>100</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11722,28 +11714,28 @@
         <v>176</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -11778,10 +11770,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11807,13 +11799,13 @@
         <v>276</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11863,7 +11855,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -11878,7 +11870,7 @@
         <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
@@ -11898,10 +11890,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11927,13 +11919,13 @@
         <v>146</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11941,7 +11933,7 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>79</v>
@@ -11983,7 +11975,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -12018,13 +12010,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>275</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>79</v>
@@ -12140,7 +12132,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>285</v>
@@ -12258,7 +12250,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>286</v>
@@ -12378,7 +12370,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>287</v>
@@ -12500,7 +12492,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>297</v>
@@ -12563,13 +12555,11 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -12622,10 +12612,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12740,10 +12730,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12860,10 +12850,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12982,10 +12972,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -13100,10 +13090,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13220,10 +13210,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13249,7 +13239,7 @@
         <v>100</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>200</v>
@@ -13265,7 +13255,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -13342,10 +13332,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13462,10 +13452,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13505,7 +13495,7 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>79</v>
@@ -13582,10 +13572,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13625,7 +13615,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>79</v>
@@ -13702,10 +13692,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13824,10 +13814,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13946,7 +13936,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>305</v>
@@ -13975,7 +13965,7 @@
         <v>100</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>307</v>
@@ -13991,7 +13981,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>79</v>
@@ -14063,12 +14053,12 @@
         <v>79</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>314</v>
@@ -14183,12 +14173,12 @@
         <v>79</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>322</v>
@@ -14306,7 +14296,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>328</v>
@@ -14426,10 +14416,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14544,10 +14534,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14664,10 +14654,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14693,13 +14683,13 @@
         <v>146</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -14749,7 +14739,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
@@ -14758,7 +14748,7 @@
         <v>86</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>98</v>
@@ -14784,10 +14774,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14813,13 +14803,13 @@
         <v>100</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -14848,28 +14838,28 @@
         <v>176</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF96" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -14904,10 +14894,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14933,13 +14923,13 @@
         <v>276</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14989,7 +14979,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -15004,7 +14994,7 @@
         <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>79</v>
@@ -15024,10 +15014,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -15053,13 +15043,13 @@
         <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -15067,7 +15057,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>79</v>
@@ -15109,7 +15099,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -15144,13 +15134,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>275</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>79</v>
@@ -15266,7 +15256,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>285</v>
@@ -15384,7 +15374,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>286</v>
@@ -15504,7 +15494,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>287</v>
@@ -15626,7 +15616,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>297</v>
@@ -15689,13 +15679,11 @@
         <v>79</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>79</v>
@@ -15748,10 +15736,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15866,10 +15854,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15986,10 +15974,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -16108,10 +16096,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -16226,10 +16214,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16346,10 +16334,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16375,7 +16363,7 @@
         <v>100</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>200</v>
@@ -16391,7 +16379,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>79</v>
@@ -16468,10 +16456,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16588,10 +16576,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16631,7 +16619,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>79</v>
@@ -16708,10 +16696,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16751,7 +16739,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>79</v>
@@ -16828,10 +16816,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16950,10 +16938,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -17072,7 +17060,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>305</v>
@@ -17101,7 +17089,7 @@
         <v>100</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>307</v>
@@ -17189,12 +17177,12 @@
         <v>79</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>314</v>
@@ -17309,12 +17297,12 @@
         <v>79</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>322</v>
@@ -17432,7 +17420,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>328</v>
@@ -17552,10 +17540,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17581,23 +17569,23 @@
         <v>233</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="N119" t="s" s="2">
+      <c r="P119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q119" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="O119" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q119" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="R119" t="s" s="2">
         <v>79</v>
       </c>
@@ -17641,7 +17629,7 @@
         <v>79</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>77</v>
@@ -17656,13 +17644,13 @@
         <v>98</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -17676,10 +17664,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17702,19 +17690,19 @@
         <v>87</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>79</v>
@@ -17763,7 +17751,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>77</v>
@@ -17778,30 +17766,30 @@
         <v>98</v>
       </c>
       <c r="AK120" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AL120" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="AO120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17916,10 +17904,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -18036,10 +18024,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18065,16 +18053,16 @@
         <v>106</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -18102,28 +18090,28 @@
         <v>292</v>
       </c>
       <c r="Y123" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF123" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -18138,7 +18126,7 @@
         <v>98</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>79</v>
@@ -18147,7 +18135,7 @@
         <v>79</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>79</v>
@@ -18158,10 +18146,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18187,16 +18175,16 @@
         <v>146</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="O124" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -18245,7 +18233,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -18260,7 +18248,7 @@
         <v>98</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>79</v>
@@ -18269,7 +18257,7 @@
         <v>79</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>79</v>
@@ -18280,14 +18268,14 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -18309,13 +18297,13 @@
         <v>146</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -18365,7 +18353,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -18380,34 +18368,34 @@
         <v>98</v>
       </c>
       <c r="AK125" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP125" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>516</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -18429,13 +18417,13 @@
         <v>146</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N126" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -18485,7 +18473,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>77</v>
@@ -18500,30 +18488,30 @@
         <v>98</v>
       </c>
       <c r="AK126" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP126" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP126" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18549,10 +18537,10 @@
         <v>146</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -18603,7 +18591,7 @@
         <v>79</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
@@ -18618,30 +18606,30 @@
         <v>98</v>
       </c>
       <c r="AK127" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP127" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>532</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18667,10 +18655,10 @@
         <v>146</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -18721,7 +18709,7 @@
         <v>79</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -18736,30 +18724,30 @@
         <v>98</v>
       </c>
       <c r="AK128" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP128" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP128" t="s" s="2">
-        <v>539</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18785,14 +18773,14 @@
         <v>258</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>79</v>
@@ -18841,7 +18829,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -18856,7 +18844,7 @@
         <v>98</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>79</v>
@@ -18865,7 +18853,7 @@
         <v>79</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>79</v>
@@ -18876,10 +18864,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18902,19 +18890,19 @@
         <v>87</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -18963,7 +18951,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -18978,16 +18966,16 @@
         <v>98</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>79</v>
@@ -18998,10 +18986,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -19116,10 +19104,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19236,10 +19224,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19265,10 +19253,10 @@
         <v>106</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -19298,66 +19286,66 @@
         <v>292</v>
       </c>
       <c r="Y133" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF133" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="Z133" t="s" s="2">
+      <c r="AG133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI133" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP133" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP133" t="s" s="2">
-        <v>567</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19383,16 +19371,16 @@
         <v>146</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -19441,7 +19429,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -19456,7 +19444,7 @@
         <v>98</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>79</v>
@@ -19465,21 +19453,21 @@
         <v>79</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19505,16 +19493,16 @@
         <v>106</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>79</v>
@@ -19542,28 +19530,28 @@
         <v>292</v>
       </c>
       <c r="Y135" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF135" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -19578,7 +19566,7 @@
         <v>98</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>79</v>
@@ -19587,21 +19575,21 @@
         <v>79</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19624,16 +19612,16 @@
         <v>87</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
@@ -19683,7 +19671,7 @@
         <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>77</v>
@@ -19718,10 +19706,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19747,10 +19735,10 @@
         <v>258</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -19801,7 +19789,7 @@
         <v>79</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>77</v>
@@ -19816,7 +19804,7 @@
         <v>98</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>79</v>
@@ -19836,10 +19824,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19865,16 +19853,16 @@
         <v>106</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>79</v>
@@ -19902,10 +19890,10 @@
         <v>292</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>79</v>
@@ -19923,7 +19911,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -19938,30 +19926,30 @@
         <v>98</v>
       </c>
       <c r="AK138" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN138" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AL138" t="s" s="2">
+      <c r="AO138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP138" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP138" t="s" s="2">
-        <v>606</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19984,19 +19972,19 @@
         <v>87</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>79</v>
@@ -20045,7 +20033,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>77</v>
@@ -20060,30 +20048,30 @@
         <v>98</v>
       </c>
       <c r="AK139" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN139" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="AL139" t="s" s="2">
+      <c r="AO139" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="AM139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN139" t="s" s="2">
+      <c r="AP139" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AP139" t="s" s="2">
-        <v>617</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20106,19 +20094,19 @@
         <v>87</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>79</v>
@@ -20155,17 +20143,17 @@
         <v>79</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AC140" s="2"/>
       <c r="AD140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>77</v>
@@ -20180,7 +20168,7 @@
         <v>98</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>150</v>
@@ -20189,7 +20177,7 @@
         <v>79</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>79</v>
@@ -20200,13 +20188,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>79</v>
@@ -20231,16 +20219,16 @@
         <v>233</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>79</v>
@@ -20289,7 +20277,7 @@
         <v>79</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
@@ -20304,7 +20292,7 @@
         <v>98</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>150</v>
@@ -20313,24 +20301,24 @@
         <v>79</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D142" t="s" s="2">
         <v>79</v>
@@ -20352,19 +20340,19 @@
         <v>87</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>79</v>
@@ -20413,7 +20401,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
@@ -20428,7 +20416,7 @@
         <v>98</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>150</v>
@@ -20437,21 +20425,21 @@
         <v>79</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20474,19 +20462,19 @@
         <v>79</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -20535,7 +20523,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>77</v>
@@ -20547,19 +20535,19 @@
         <v>143</v>
       </c>
       <c r="AJ143" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN143" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>79</v>
@@ -20570,10 +20558,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20688,10 +20676,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20808,10 +20796,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20837,16 +20825,16 @@
         <v>106</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>79</v>
@@ -20859,7 +20847,7 @@
         <v>79</v>
       </c>
       <c r="T146" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="U146" t="s" s="2">
         <v>79</v>
@@ -20874,28 +20862,28 @@
         <v>292</v>
       </c>
       <c r="Y146" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF146" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>77</v>
@@ -20910,7 +20898,7 @@
         <v>98</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>79</v>
@@ -20919,21 +20907,21 @@
         <v>79</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP146" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20959,13 +20947,13 @@
         <v>106</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20979,7 +20967,7 @@
         <v>79</v>
       </c>
       <c r="T147" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="U147" t="s" s="2">
         <v>79</v>
@@ -20994,28 +20982,28 @@
         <v>292</v>
       </c>
       <c r="Y147" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF147" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>77</v>
@@ -21030,7 +21018,7 @@
         <v>98</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>79</v>
@@ -21039,7 +21027,7 @@
         <v>79</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>79</v>
@@ -21050,10 +21038,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -21079,16 +21067,16 @@
         <v>146</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="M148" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="O148" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -21101,7 +21089,7 @@
         <v>79</v>
       </c>
       <c r="T148" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="U148" t="s" s="2">
         <v>79</v>
@@ -21137,7 +21125,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -21152,7 +21140,7 @@
         <v>98</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>79</v>
@@ -21161,21 +21149,21 @@
         <v>79</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP148" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21201,10 +21189,10 @@
         <v>146</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -21219,7 +21207,7 @@
         <v>79</v>
       </c>
       <c r="T149" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U149" t="s" s="2">
         <v>79</v>
@@ -21255,7 +21243,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>77</v>
@@ -21270,30 +21258,30 @@
         <v>98</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AO149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP149" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP149" t="s" s="2">
-        <v>681</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21319,10 +21307,10 @@
         <v>146</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21408,10 +21396,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21524,13 +21512,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B152" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="C152" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>79</v>
@@ -21552,13 +21540,13 @@
         <v>79</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -21624,7 +21612,7 @@
         <v>137</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>79</v>
@@ -21644,13 +21632,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -21672,13 +21660,13 @@
         <v>79</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21744,7 +21732,7 @@
         <v>137</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>79</v>
@@ -21764,13 +21752,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>79</v>
@@ -21792,13 +21780,13 @@
         <v>79</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21864,7 +21852,7 @@
         <v>137</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>79</v>
@@ -21884,13 +21872,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>79</v>
@@ -21912,13 +21900,13 @@
         <v>79</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -22004,10 +21992,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -22033,10 +22021,10 @@
         <v>146</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -22060,7 +22048,7 @@
         <v>79</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="X156" t="s" s="2">
         <v>79</v>
@@ -22087,7 +22075,7 @@
         <v>79</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>77</v>
@@ -22122,14 +22110,14 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -22151,10 +22139,10 @@
         <v>146</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -22169,7 +22157,7 @@
         <v>79</v>
       </c>
       <c r="T157" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U157" t="s" s="2">
         <v>79</v>
@@ -22205,7 +22193,7 @@
         <v>79</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>77</v>
@@ -22220,34 +22208,34 @@
         <v>98</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="AO157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP157" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="AO157" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP157" t="s" s="2">
-        <v>721</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -22269,13 +22257,13 @@
         <v>146</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -22289,7 +22277,7 @@
         <v>79</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>79</v>
@@ -22325,7 +22313,7 @@
         <v>79</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>77</v>
@@ -22340,7 +22328,7 @@
         <v>98</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>79</v>
@@ -22349,7 +22337,7 @@
         <v>79</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>79</v>
@@ -22360,14 +22348,14 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22389,10 +22377,10 @@
         <v>146</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -22443,7 +22431,7 @@
         <v>79</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>77</v>
@@ -22458,34 +22446,34 @@
         <v>98</v>
       </c>
       <c r="AK159" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AO159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP159" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="AO159" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP159" t="s" s="2">
-        <v>738</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -22507,10 +22495,10 @@
         <v>146</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22525,7 +22513,7 @@
         <v>79</v>
       </c>
       <c r="T160" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="U160" t="s" s="2">
         <v>79</v>
@@ -22561,7 +22549,7 @@
         <v>79</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>77</v>
@@ -22576,30 +22564,30 @@
         <v>98</v>
       </c>
       <c r="AK160" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="AO160" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP160" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP160" t="s" s="2">
-        <v>747</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22625,13 +22613,13 @@
         <v>146</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N161" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -22681,7 +22669,7 @@
         <v>79</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>77</v>
@@ -22696,30 +22684,30 @@
         <v>98</v>
       </c>
       <c r="AK161" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="AO161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP161" t="s" s="2">
         <v>753</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP161" t="s" s="2">
-        <v>755</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22745,14 +22733,14 @@
         <v>258</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>79</v>
@@ -22765,7 +22753,7 @@
         <v>79</v>
       </c>
       <c r="T162" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U162" t="s" s="2">
         <v>79</v>
@@ -22801,7 +22789,7 @@
         <v>79</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -22816,7 +22804,7 @@
         <v>98</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>79</v>
@@ -22825,7 +22813,7 @@
         <v>79</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>79</v>
@@ -22836,10 +22824,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22865,14 +22853,14 @@
         <v>173</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>79</v>
@@ -22900,10 +22888,10 @@
         <v>176</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>79</v>
@@ -22921,7 +22909,7 @@
         <v>79</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>77</v>
@@ -22936,16 +22924,16 @@
         <v>98</v>
       </c>
       <c r="AK163" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AM163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN163" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN163" t="s" s="2">
-        <v>771</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>79</v>
@@ -22956,10 +22944,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -23074,10 +23062,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23194,10 +23182,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23316,10 +23304,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23434,10 +23422,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23554,10 +23542,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23583,7 +23571,7 @@
         <v>100</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M169" t="s" s="2">
         <v>200</v>
@@ -23671,15 +23659,15 @@
         <v>79</v>
       </c>
       <c r="AP169" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23796,10 +23784,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23911,15 +23899,15 @@
         <v>79</v>
       </c>
       <c r="AP171" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -24031,15 +24019,15 @@
         <v>79</v>
       </c>
       <c r="AP172" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24158,10 +24146,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24280,10 +24268,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24306,19 +24294,19 @@
         <v>79</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="O175" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>79</v>
@@ -24355,17 +24343,17 @@
         <v>79</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AC175" s="2"/>
       <c r="AD175" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>77</v>
@@ -24380,7 +24368,7 @@
         <v>98</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>150</v>
@@ -24389,7 +24377,7 @@
         <v>79</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>79</v>
@@ -24400,13 +24388,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>79</v>
@@ -24431,16 +24419,16 @@
         <v>233</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="N176" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="O176" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>79</v>
@@ -24489,7 +24477,7 @@
         <v>79</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>77</v>
@@ -24504,7 +24492,7 @@
         <v>98</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>150</v>
@@ -24513,7 +24501,7 @@
         <v>79</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>79</v>
@@ -24524,13 +24512,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>79</v>
@@ -24552,19 +24540,19 @@
         <v>79</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L177" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="N177" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="O177" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>79</v>
@@ -24613,7 +24601,7 @@
         <v>79</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>
@@ -24628,7 +24616,7 @@
         <v>98</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>150</v>
@@ -24637,7 +24625,7 @@
         <v>79</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>79</v>
@@ -24648,10 +24636,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24674,19 +24662,19 @@
         <v>79</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>801</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="O178" t="s" s="2">
         <v>802</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="O178" t="s" s="2">
-        <v>804</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>79</v>
@@ -24735,7 +24723,7 @@
         <v>79</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>77</v>
@@ -24750,7 +24738,7 @@
         <v>98</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>150</v>
@@ -24759,7 +24747,7 @@
         <v>79</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>79</v>
@@ -24770,10 +24758,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24796,19 +24784,19 @@
         <v>79</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="L179" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>812</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>79</v>
@@ -24857,7 +24845,7 @@
         <v>79</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>77</v>
@@ -24869,10 +24857,10 @@
         <v>79</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>150</v>
@@ -24892,10 +24880,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -25010,10 +24998,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25130,14 +25118,14 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -25159,10 +25147,10 @@
         <v>131</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>156</v>
@@ -25217,7 +25205,7 @@
         <v>79</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>77</v>
@@ -25252,10 +25240,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25281,14 +25269,14 @@
         <v>173</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>79</v>
@@ -25316,10 +25304,10 @@
         <v>176</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>79</v>
@@ -25337,7 +25325,7 @@
         <v>79</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>77</v>
@@ -25361,7 +25349,7 @@
         <v>79</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>79</v>
@@ -25372,10 +25360,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25490,10 +25478,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25610,10 +25598,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25732,10 +25720,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25850,10 +25838,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25970,10 +25958,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25999,7 +25987,7 @@
         <v>100</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M189" t="s" s="2">
         <v>200</v>
@@ -26087,15 +26075,15 @@
         <v>79</v>
       </c>
       <c r="AP189" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26212,10 +26200,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26327,15 +26315,15 @@
         <v>79</v>
       </c>
       <c r="AP191" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26447,15 +26435,15 @@
         <v>79</v>
       </c>
       <c r="AP192" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26574,10 +26562,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26696,10 +26684,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26722,17 +26710,17 @@
         <v>79</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>79</v>
@@ -26781,7 +26769,7 @@
         <v>79</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>77</v>
@@ -26796,7 +26784,7 @@
         <v>98</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>150</v>
@@ -26805,7 +26793,7 @@
         <v>79</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>79</v>
@@ -26816,10 +26804,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26934,10 +26922,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -27054,10 +27042,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27083,16 +27071,16 @@
         <v>106</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N198" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="O198" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>79</v>
@@ -27120,28 +27108,28 @@
         <v>292</v>
       </c>
       <c r="Y198" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF198" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>77</v>
@@ -27156,7 +27144,7 @@
         <v>98</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL198" t="s" s="2">
         <v>79</v>
@@ -27165,7 +27153,7 @@
         <v>79</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>79</v>
@@ -27176,10 +27164,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27205,16 +27193,16 @@
         <v>146</v>
       </c>
       <c r="L199" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M199" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N199" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="O199" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>79</v>
@@ -27263,7 +27251,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>77</v>
@@ -27278,7 +27266,7 @@
         <v>98</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>79</v>
@@ -27287,7 +27275,7 @@
         <v>79</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>79</v>
@@ -27298,14 +27286,14 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -27327,13 +27315,13 @@
         <v>146</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M200" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="M200" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
@@ -27383,7 +27371,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>77</v>
@@ -27398,7 +27386,7 @@
         <v>98</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AL200" t="s" s="2">
         <v>79</v>
@@ -27407,25 +27395,25 @@
         <v>79</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP200" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
@@ -27447,13 +27435,13 @@
         <v>146</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M201" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N201" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M201" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -27503,7 +27491,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>77</v>
@@ -27518,7 +27506,7 @@
         <v>98</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>79</v>
@@ -27527,21 +27515,21 @@
         <v>79</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP201" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27567,10 +27555,10 @@
         <v>146</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27621,7 +27609,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>77</v>
@@ -27636,7 +27624,7 @@
         <v>98</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>79</v>
@@ -27645,7 +27633,7 @@
         <v>79</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>79</v>
@@ -27656,10 +27644,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27685,10 +27673,10 @@
         <v>146</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -27739,7 +27727,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>77</v>
@@ -27754,7 +27742,7 @@
         <v>98</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>79</v>
@@ -27763,7 +27751,7 @@
         <v>79</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>79</v>
@@ -27774,10 +27762,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27803,14 +27791,14 @@
         <v>258</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -27859,7 +27847,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>77</v>
@@ -27874,7 +27862,7 @@
         <v>98</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL204" t="s" s="2">
         <v>79</v>
@@ -27883,7 +27871,7 @@
         <v>79</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>79</v>
@@ -27894,10 +27882,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27920,19 +27908,19 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L205" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M205" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="N205" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="M205" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>862</v>
-      </c>
       <c r="O205" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27981,7 +27969,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>77</v>
@@ -27996,7 +27984,7 @@
         <v>98</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AL205" t="s" s="2">
         <v>150</v>
@@ -28005,7 +27993,7 @@
         <v>79</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>79</v>
@@ -28016,10 +28004,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28134,10 +28122,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28254,10 +28242,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28283,10 +28271,10 @@
         <v>106</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -28316,43 +28304,43 @@
         <v>292</v>
       </c>
       <c r="Y208" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF208" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="Z208" t="s" s="2">
+      <c r="AG208" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI208" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG208" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH208" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI208" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AL208" t="s" s="2">
         <v>79</v>
@@ -28361,21 +28349,21 @@
         <v>79</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP208" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28401,16 +28389,16 @@
         <v>146</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N209" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="O209" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>79</v>
@@ -28459,7 +28447,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>77</v>
@@ -28474,7 +28462,7 @@
         <v>98</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>79</v>
@@ -28483,21 +28471,21 @@
         <v>79</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP209" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28523,16 +28511,16 @@
         <v>106</v>
       </c>
       <c r="L210" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M210" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N210" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="O210" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>79</v>
@@ -28560,28 +28548,28 @@
         <v>292</v>
       </c>
       <c r="Y210" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Z210" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AA210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE210" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF210" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="Z210" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AA210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF210" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>77</v>
@@ -28596,7 +28584,7 @@
         <v>98</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>79</v>
@@ -28605,21 +28593,21 @@
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP210" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28642,16 +28630,16 @@
         <v>87</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L211" t="s" s="2">
+      <c r="N211" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M211" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28701,7 +28689,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>77</v>
@@ -28736,10 +28724,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28765,10 +28753,10 @@
         <v>258</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -28819,7 +28807,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>77</v>
@@ -28834,7 +28822,7 @@
         <v>98</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>79</v>
@@ -28854,10 +28842,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28880,19 +28868,19 @@
         <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M213" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="O213" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
@@ -28941,7 +28929,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>77</v>
@@ -28953,19 +28941,19 @@
         <v>143</v>
       </c>
       <c r="AJ213" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AK213" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AL213" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM213" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN213" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="AK213" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AL213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM213" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN213" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>79</v>
@@ -28976,10 +28964,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29094,10 +29082,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -29214,10 +29202,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29243,16 +29231,16 @@
         <v>106</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N216" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="O216" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O216" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
@@ -29265,7 +29253,7 @@
         <v>79</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>79</v>
@@ -29280,28 +29268,28 @@
         <v>292</v>
       </c>
       <c r="Y216" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="Z216" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AA216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE216" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF216" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="Z216" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AA216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE216" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF216" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>77</v>
@@ -29316,7 +29304,7 @@
         <v>98</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL216" t="s" s="2">
         <v>79</v>
@@ -29325,21 +29313,21 @@
         <v>79</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP216" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29365,13 +29353,13 @@
         <v>106</v>
       </c>
       <c r="L217" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M217" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="N217" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
@@ -29385,7 +29373,7 @@
         <v>79</v>
       </c>
       <c r="T217" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="U217" t="s" s="2">
         <v>79</v>
@@ -29400,28 +29388,28 @@
         <v>292</v>
       </c>
       <c r="Y217" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="Z217" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AA217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE217" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF217" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="Z217" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AA217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE217" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF217" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>77</v>
@@ -29436,7 +29424,7 @@
         <v>98</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AL217" t="s" s="2">
         <v>79</v>
@@ -29445,7 +29433,7 @@
         <v>79</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29456,10 +29444,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29485,16 +29473,16 @@
         <v>146</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N218" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="M218" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="O218" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29507,7 +29495,7 @@
         <v>79</v>
       </c>
       <c r="T218" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="U218" t="s" s="2">
         <v>79</v>
@@ -29543,7 +29531,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>77</v>
@@ -29558,7 +29546,7 @@
         <v>98</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AL218" t="s" s="2">
         <v>79</v>
@@ -29567,21 +29555,21 @@
         <v>79</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP218" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29607,10 +29595,10 @@
         <v>146</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -29625,7 +29613,7 @@
         <v>79</v>
       </c>
       <c r="T219" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="U219" t="s" s="2">
         <v>79</v>
@@ -29661,7 +29649,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>77</v>
@@ -29676,7 +29664,7 @@
         <v>98</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AL219" t="s" s="2">
         <v>79</v>
@@ -29685,21 +29673,21 @@
         <v>79</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP219" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29725,10 +29713,10 @@
         <v>146</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -29814,10 +29802,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29930,13 +29918,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D222" t="s" s="2">
         <v>79</v>
@@ -29958,13 +29946,13 @@
         <v>79</v>
       </c>
       <c r="K222" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M222" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -30030,7 +30018,7 @@
         <v>137</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>79</v>
@@ -30050,13 +30038,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>79</v>
@@ -30078,13 +30066,13 @@
         <v>79</v>
       </c>
       <c r="K223" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M223" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -30150,7 +30138,7 @@
         <v>137</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>79</v>
@@ -30170,13 +30158,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>79</v>
@@ -30198,13 +30186,13 @@
         <v>79</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -30270,7 +30258,7 @@
         <v>137</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AL224" t="s" s="2">
         <v>79</v>
@@ -30290,13 +30278,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>79</v>
@@ -30318,13 +30306,13 @@
         <v>79</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M225" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -30410,10 +30398,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30439,10 +30427,10 @@
         <v>146</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -30466,7 +30454,7 @@
         <v>79</v>
       </c>
       <c r="W226" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="X226" t="s" s="2">
         <v>79</v>
@@ -30493,7 +30481,7 @@
         <v>79</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>77</v>
@@ -30528,14 +30516,14 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" t="s" s="2">
@@ -30557,10 +30545,10 @@
         <v>146</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -30575,7 +30563,7 @@
         <v>79</v>
       </c>
       <c r="T227" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U227" t="s" s="2">
         <v>79</v>
@@ -30611,7 +30599,7 @@
         <v>79</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>77</v>
@@ -30626,7 +30614,7 @@
         <v>98</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>79</v>
@@ -30635,25 +30623,25 @@
         <v>79</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AO227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP227" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
@@ -30675,13 +30663,13 @@
         <v>146</v>
       </c>
       <c r="L228" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N228" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -30695,7 +30683,7 @@
         <v>79</v>
       </c>
       <c r="T228" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="U228" t="s" s="2">
         <v>79</v>
@@ -30731,7 +30719,7 @@
         <v>79</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>77</v>
@@ -30746,7 +30734,7 @@
         <v>98</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AL228" t="s" s="2">
         <v>79</v>
@@ -30755,7 +30743,7 @@
         <v>79</v>
       </c>
       <c r="AN228" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AO228" t="s" s="2">
         <v>79</v>
@@ -30766,14 +30754,14 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
@@ -30795,10 +30783,10 @@
         <v>146</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -30849,7 +30837,7 @@
         <v>79</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>77</v>
@@ -30864,7 +30852,7 @@
         <v>98</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AL229" t="s" s="2">
         <v>79</v>
@@ -30873,25 +30861,25 @@
         <v>79</v>
       </c>
       <c r="AN229" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AO229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP229" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
@@ -30913,10 +30901,10 @@
         <v>146</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -30931,7 +30919,7 @@
         <v>79</v>
       </c>
       <c r="T230" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="U230" t="s" s="2">
         <v>79</v>
@@ -30967,7 +30955,7 @@
         <v>79</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>77</v>
@@ -30982,7 +30970,7 @@
         <v>98</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AL230" t="s" s="2">
         <v>79</v>
@@ -30991,21 +30979,21 @@
         <v>79</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AO230" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP230" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31031,13 +31019,13 @@
         <v>146</v>
       </c>
       <c r="L231" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N231" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
@@ -31087,7 +31075,7 @@
         <v>79</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>77</v>
@@ -31102,7 +31090,7 @@
         <v>98</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>79</v>
@@ -31111,21 +31099,21 @@
         <v>79</v>
       </c>
       <c r="AN231" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="AO231" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP231" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31151,14 +31139,14 @@
         <v>258</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P232" t="s" s="2">
         <v>79</v>
@@ -31171,7 +31159,7 @@
         <v>79</v>
       </c>
       <c r="T232" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U232" t="s" s="2">
         <v>79</v>
@@ -31207,7 +31195,7 @@
         <v>79</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>77</v>
@@ -31222,7 +31210,7 @@
         <v>98</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL232" t="s" s="2">
         <v>79</v>
@@ -31231,7 +31219,7 @@
         <v>79</v>
       </c>
       <c r="AN232" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AO232" t="s" s="2">
         <v>79</v>
@@ -31242,10 +31230,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31271,14 +31259,14 @@
         <v>106</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>79</v>
@@ -31306,10 +31294,10 @@
         <v>292</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Z233" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AA233" t="s" s="2">
         <v>79</v>
@@ -31327,7 +31315,7 @@
         <v>79</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>77</v>
@@ -31342,7 +31330,7 @@
         <v>98</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AL233" t="s" s="2">
         <v>150</v>
@@ -31351,7 +31339,7 @@
         <v>79</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="AO233" t="s" s="2">
         <v>79</v>
@@ -31362,10 +31350,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31391,14 +31379,14 @@
         <v>329</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>79</v>
@@ -31447,7 +31435,7 @@
         <v>79</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>77</v>
@@ -31456,13 +31444,13 @@
         <v>86</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AL234" t="s" s="2">
         <v>150</v>
@@ -31471,21 +31459,21 @@
         <v>79</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AO234" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP234" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31511,10 +31499,10 @@
         <v>258</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -31565,7 +31553,7 @@
         <v>79</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>77</v>
@@ -31580,7 +31568,7 @@
         <v>98</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AL235" t="s" s="2">
         <v>150</v>
@@ -31600,10 +31588,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31626,19 +31614,19 @@
         <v>79</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L236" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="N236" t="s" s="2">
         <v>919</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="O236" t="s" s="2">
         <v>920</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>79</v>
@@ -31687,7 +31675,7 @@
         <v>79</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>77</v>
@@ -31702,10 +31690,10 @@
         <v>98</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>79</v>
@@ -31722,10 +31710,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31840,10 +31828,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31960,14 +31948,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
@@ -31989,10 +31977,10 @@
         <v>131</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N239" t="s" s="2">
         <v>156</v>
@@ -32047,7 +32035,7 @@
         <v>79</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>77</v>
@@ -32082,10 +32070,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32111,16 +32099,16 @@
         <v>173</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="N240" t="s" s="2">
         <v>929</v>
       </c>
-      <c r="M240" t="s" s="2">
+      <c r="O240" t="s" s="2">
         <v>930</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>79</v>
@@ -32169,7 +32157,7 @@
         <v>79</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>86</v>
@@ -32184,30 +32172,30 @@
         <v>98</v>
       </c>
       <c r="AK240" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="AL240" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="AM240" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN240" t="s" s="2">
         <v>933</v>
       </c>
-      <c r="AL240" t="s" s="2">
+      <c r="AO240" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP240" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="AM240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN240" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="AO240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP240" t="s" s="2">
-        <v>936</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32233,16 +32221,16 @@
         <v>233</v>
       </c>
       <c r="L241" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="N241" t="s" s="2">
         <v>938</v>
       </c>
-      <c r="M241" t="s" s="2">
+      <c r="O241" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>941</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>79</v>
@@ -32291,7 +32279,7 @@
         <v>79</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>77</v>
@@ -32306,34 +32294,34 @@
         <v>98</v>
       </c>
       <c r="AK241" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="AL241" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="AM241" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN241" t="s" s="2">
         <v>942</v>
       </c>
-      <c r="AL241" t="s" s="2">
+      <c r="AO241" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP241" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="AM241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN241" t="s" s="2">
-        <v>944</v>
-      </c>
-      <c r="AO241" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP241" t="s" s="2">
-        <v>945</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
@@ -32352,16 +32340,16 @@
         <v>79</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="M242" t="s" s="2">
         <v>948</v>
       </c>
-      <c r="L242" t="s" s="2">
+      <c r="N242" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="M242" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>951</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
@@ -32411,7 +32399,7 @@
         <v>79</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>77</v>
@@ -32426,7 +32414,7 @@
         <v>98</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AL242" t="s" s="2">
         <v>150</v>
@@ -32435,21 +32423,21 @@
         <v>79</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AO242" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP242" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -32475,16 +32463,16 @@
         <v>329</v>
       </c>
       <c r="L243" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="N243" t="s" s="2">
         <v>956</v>
       </c>
-      <c r="M243" t="s" s="2">
+      <c r="O243" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>958</v>
-      </c>
-      <c r="O243" t="s" s="2">
-        <v>959</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>79</v>
@@ -32533,7 +32521,7 @@
         <v>79</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>77</v>
@@ -32548,10 +32536,10 @@
         <v>98</v>
       </c>
       <c r="AK243" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>79</v>
@@ -32563,15 +32551,15 @@
         <v>79</v>
       </c>
       <c r="AP243" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -32594,19 +32582,19 @@
         <v>87</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L244" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="N244" t="s" s="2">
         <v>963</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="O244" t="s" s="2">
         <v>964</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>965</v>
-      </c>
-      <c r="O244" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="P244" t="s" s="2">
         <v>79</v>
@@ -32655,7 +32643,7 @@
         <v>79</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>77</v>
@@ -32670,7 +32658,7 @@
         <v>98</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AL244" t="s" s="2">
         <v>150</v>
@@ -32690,10 +32678,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32808,10 +32796,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32928,14 +32916,14 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -32957,10 +32945,10 @@
         <v>131</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N247" t="s" s="2">
         <v>156</v>
@@ -33015,7 +33003,7 @@
         <v>79</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>77</v>
@@ -33050,10 +33038,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33076,16 +33064,16 @@
         <v>87</v>
       </c>
       <c r="K248" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="M248" t="s" s="2">
         <v>972</v>
       </c>
-      <c r="L248" t="s" s="2">
+      <c r="N248" t="s" s="2">
         <v>973</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>974</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="O248" s="2"/>
       <c r="P248" t="s" s="2">
@@ -33135,7 +33123,7 @@
         <v>79</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>86</v>
@@ -33159,7 +33147,7 @@
         <v>79</v>
       </c>
       <c r="AN248" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AO248" t="s" s="2">
         <v>79</v>
@@ -33170,10 +33158,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33199,10 +33187,10 @@
         <v>106</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
@@ -33232,10 +33220,10 @@
         <v>292</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="Z249" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="AA249" t="s" s="2">
         <v>79</v>
@@ -33253,7 +33241,7 @@
         <v>79</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>86</v>
@@ -33268,7 +33256,7 @@
         <v>98</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AL249" t="s" s="2">
         <v>150</v>
